--- a/코드/dataset/2019_01_06_10차_RAN.xlsx
+++ b/코드/dataset/2019_01_06_10차_RAN.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\학교\컴퓨터공학종합설계\프로젝트\코드\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F20FBB5-23B1-47E2-AD23-1B54135AEE05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mySheet!$A$1:$B$5401</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5426" uniqueCount="5340">
-  <si>
-    <t>캡스톤디자인1은 언제 수강하나요?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5402" uniqueCount="5317">
   <si>
     <t>객체지향설계와패턴은 언제 수강하나요?</t>
   </si>
@@ -394,9 +393,6 @@
     <t>이번 학년에 가상현실을 들으려고 하는데, 가상현실 언제 듣는 게 좋은가요?</t>
   </si>
   <si>
-    <t>이번 학년에 데이터통신입문을 들으려고 하는데, 데이터통신입문 언제 듣는 게 좋은가요?</t>
-  </si>
-  <si>
     <t>이번 학년에 컴퓨터네트워크을 들으려고 하는데, 컴퓨터네트워크 언제 듣는 게 좋은가요?</t>
   </si>
   <si>
@@ -418,12 +414,6 @@
     <t>이번 학년에 웹플랫폼콘텐츠개발을 들으려고 하는데, 웹플랫폼콘텐츠개발 언제 듣는게 좋을까요?</t>
   </si>
   <si>
-    <t>이번 학년에 컴퓨터알고리즘및실습을 들으려고 하는데, 보통 컴퓨터알고리즘및실습 언제 듣나요?</t>
-  </si>
-  <si>
-    <t>이번 학년에 멀티미디어빅데이터개론을 들으려고 하는데, 보통 멀티미디어빅데이터개론 언제 듣나요?</t>
-  </si>
-  <si>
     <t>이번 학년에 디지털통신및실험을 들으려고 하는데, 보통 디지털통신및실험 언제 듣나요?</t>
   </si>
   <si>
@@ -1699,12 +1689,6 @@
     <t>2D게임프로그래밍 수업 진행이 어떻게 되나요?</t>
   </si>
   <si>
-    <t>통신이론및실험 수업 진행이 어떻게 되나요?</t>
-  </si>
-  <si>
-    <t>데이터통신 이거 진행 방식이 어떻게 되나요?</t>
-  </si>
-  <si>
     <t>인공지능 이거 진행 방식이 어떻게 되나요?</t>
   </si>
   <si>
@@ -3670,12 +3654,6 @@
     <t>장태무 교수님의 임베디드소프트웨어입문 과제 많아요?</t>
   </si>
   <si>
-    <t>임대운 교수님의 임베디드소프트웨어입문 과제 많아요?</t>
-  </si>
-  <si>
-    <t>김웅섭 교수님의 임베디드소프트웨어입문 과제 많아요?</t>
-  </si>
-  <si>
     <t>안종석 교수님의 통신이론및실험 과제 많아요?</t>
   </si>
   <si>
@@ -6586,9 +6564,6 @@
     <t>김신우 교수님이 하시는 멀티미디어네트워크 재밋어?</t>
   </si>
   <si>
-    <t>박은찬 교수님이 하시는 멀티미디어네트워크 재밋어?</t>
-  </si>
-  <si>
     <t>오세만 교수님이 하시는 멀티미디어빅데이터개론 재밋어?</t>
   </si>
   <si>
@@ -8233,9 +8208,6 @@
     <t>졸업하기 전에 서정열 교수님의 종합설계 강의는 꼭 들어봐야 한다고 하던데, 이 강의의 특징은 뭐야?</t>
   </si>
   <si>
-    <t>졸업하기 전에 이용규 교수님의 종합설계 강의는 꼭 들어봐야 한다고 하던데, 이 강의의 특징은 뭐야?</t>
-  </si>
-  <si>
     <t>졸업하기 전에 이용규 교수님의 암호학과네트워크보안 강의는 꼭 들어봐야 한다고 하던데, 이 강의의 특징은 뭐야?</t>
   </si>
   <si>
@@ -8929,9 +8901,6 @@
     <t>정대원 교수님이 하시는 강의에 대해 알려줘</t>
   </si>
   <si>
-    <t>임민중 교수님이 하시는 강의에 대해 알려줘</t>
-  </si>
-  <si>
     <t>정준호 교수님이 했던 강의는 무엇인가요?</t>
   </si>
   <si>
@@ -8959,9 +8928,6 @@
     <t>김신우 교수님이 했던 강의가 뭐야?</t>
   </si>
   <si>
-    <t>장태무 교수님 수업이 듣고 싶어요. 교수님이 하시는 강의에 대해 알려주세요.</t>
-  </si>
-  <si>
     <t>서상현 교수님 수업이 듣고 싶어요. 교수님이 하시는 강의에 대해 알려주세요.</t>
   </si>
   <si>
@@ -8998,9 +8964,6 @@
     <t>정승원 교수님 강의를 듣고 싶어요. 교수님이 하시는 강의에 대해 알려주세요.</t>
   </si>
   <si>
-    <t>김가영 교수님 강의를 듣고 싶어요. 교수님이 하시는 강의에 대해 알려주세요.</t>
-  </si>
-  <si>
     <t>박경원 교수님 강의를 듣고 싶어요. 교수님이 하시는 강의에 대해 알려주세요.</t>
   </si>
   <si>
@@ -9943,9 +9906,6 @@
     <t>양기주 교수님에 대한 얘기를 많이 들었습니다. 교수님께서 수업하시는 강의에 대해 알려주세요</t>
   </si>
   <si>
-    <t>박미화 교수님에 대한 얘기를 많이 들었습니다. 교수님께서 수업하시는 강의에 대해 알려주세요</t>
-  </si>
-  <si>
     <t>최병석 교수님에 대한 얘기를 많이 들었습니다. 교수님께서 수업하시는 강의에 대해 알려주세요</t>
   </si>
   <si>
@@ -10099,9 +10059,6 @@
     <t>이번 학기에 안종석 교수님 강의를 하나 들으려고 합니다. 교수님께서 진행하는 수업 어떤 게 있어요?</t>
   </si>
   <si>
-    <t>이번 학기에 류철 교수님 강의를 하나 들으려고 하는데, 교수님께서 진행하는 수업 어떤 게 있어?</t>
-  </si>
-  <si>
     <t>이번 학기에 정진우 교수님 강의를 하나 들으려고 하는데, 교수님께서 진행하는 수업 어떤 게 있어?</t>
   </si>
   <si>
@@ -12208,9 +12165,6 @@
     <t>신호와시스템 들어서 전공학점을 채우려고 합니다. 신호와시스템 교수님 알려주세요</t>
   </si>
   <si>
-    <t>2D그래픽실습 들어서 전공학점을 채우려고 합니다. 2D그래픽실습 교수님 알려주세요</t>
-  </si>
-  <si>
     <t>임베디드시스템 들어서 전공학점을 채우려고 합니다. 임베디드시스템 교수님 정보가 필요합니다.</t>
   </si>
   <si>
@@ -12373,15 +12327,9 @@
     <t>캡스톤디자인1 들어서 전공학점을 채우려고 하는데, 캡스톤디자인1 담당한 교수님 궁금해요.</t>
   </si>
   <si>
-    <t>S/W품질관리및테스팅 들어서 전공학점을 채우려고 하는데, S/W품질관리및테스팅 담당한 교수님 궁금해요.</t>
-  </si>
-  <si>
     <t>문봉교 교수님은 어떤 부분을 연구하시나요?</t>
   </si>
   <si>
-    <t>김웅섭 교수님은 어떤 부분을 연구하시나요?</t>
-  </si>
-  <si>
     <t>김현우 교수님은 어떤 부분을 연구하시나요?</t>
   </si>
   <si>
@@ -12508,9 +12456,6 @@
     <t>윤승현 교수님이 하시는 연구가 무엇인가요?</t>
   </si>
   <si>
-    <t>김동호 교수님이 하시는 연구가 무엇인가요?</t>
-  </si>
-  <si>
     <t>문봉교 교수님이 하시는 연구가 뭐야?</t>
   </si>
   <si>
@@ -14233,9 +14178,6 @@
     <t>김준태 교수님 프로젝트는 보통 어떤가요?</t>
   </si>
   <si>
-    <t>정영식 교수님 프로젝트는 보통 어떤가요?</t>
-  </si>
-  <si>
     <t>신연순 교수님 프로젝트는 보통 어떤가요?</t>
   </si>
   <si>
@@ -14614,9 +14556,6 @@
     <t>신연순 교수님 수업 어떠나요?</t>
   </si>
   <si>
-    <t>김동환 교수님 수업 어떠나요?</t>
-  </si>
-  <si>
     <t>임민중 교수님 수업 어떠나요?</t>
   </si>
   <si>
@@ -15466,9 +15405,6 @@
     <t>수강신청을 하려고 합니다. 정승원 교수님 강의 방식 어떤지 알려주세요</t>
   </si>
   <si>
-    <t>수강신청을 하려고 합니다. 최은만 교수님 강의 방식 어떤지 알려주세요</t>
-  </si>
-  <si>
     <t>수강신청을 하려고 합니다. 서정열 교수님 강의 방식 어떤지 알려주세요</t>
   </si>
   <si>
@@ -16022,9 +15958,6 @@
   </si>
   <si>
     <t>이번 학기에 수강신청을 하려고 해요. 주해종 교수님 강의 특징은 무엇이죠?</t>
-  </si>
-  <si>
-    <t>이번 학기에 수강신청을 하려고 해요. 서상현 교수님 강의 특징은 무엇이죠?</t>
   </si>
   <si>
     <t>이번 학기에 수강신청을 하려고 해요. 성연식 교수님 강의 특징에 대해 알려줘요</t>
@@ -16047,7 +15980,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -16410,11 +16343,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5425"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A5375" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="7" sqref="A5406:XFD5406 A5314:XFD5314 A5219:XFD5219 A2214:XFD2214 A3406:XFD3406 A2772:XFD2772 A3353:XFD3353 A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16424,16 +16357,19 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5338</v>
+        <v>5315</v>
       </c>
       <c r="B1" t="s">
-        <v>5339</v>
+        <v>5316</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -17893,7 +17829,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -17901,7 +17837,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -17909,7 +17845,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -17917,7 +17853,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -18213,7 +18149,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -18221,7 +18157,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -18229,7 +18165,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -18237,7 +18173,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -18349,7 +18285,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -18357,7 +18293,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -18365,7 +18301,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -18373,7 +18309,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -19581,7 +19517,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -19589,7 +19525,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -19597,7 +19533,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -19605,7 +19541,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -19909,7 +19845,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B437">
         <v>0</v>
@@ -19917,7 +19853,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B438">
         <v>0</v>
@@ -19925,7 +19861,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B439">
         <v>0</v>
@@ -19933,7 +19869,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B440">
         <v>0</v>
@@ -20349,7 +20285,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B492">
         <v>0</v>
@@ -20357,7 +20293,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B493">
         <v>0</v>
@@ -20365,7 +20301,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B494">
         <v>0</v>
@@ -20373,7 +20309,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B495">
         <v>0</v>
@@ -20605,7 +20541,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B524">
         <v>0</v>
@@ -20613,7 +20549,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B525">
         <v>0</v>
@@ -20621,7 +20557,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B526">
         <v>0</v>
@@ -20629,7 +20565,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B527">
         <v>0</v>
@@ -20696,7 +20632,7 @@
         <v>526</v>
       </c>
       <c r="B535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
@@ -20704,7 +20640,7 @@
         <v>527</v>
       </c>
       <c r="B536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
@@ -20712,7 +20648,7 @@
         <v>528</v>
       </c>
       <c r="B537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
@@ -20720,7 +20656,7 @@
         <v>529</v>
       </c>
       <c r="B538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
@@ -21509,7 +21445,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -21517,7 +21453,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B638">
         <v>1</v>
@@ -21525,7 +21461,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B639">
         <v>1</v>
@@ -21533,7 +21469,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B640">
         <v>1</v>
@@ -21541,7 +21477,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B641">
         <v>1</v>
@@ -21549,7 +21485,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B642">
         <v>1</v>
@@ -22629,7 +22565,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B777">
         <v>1</v>
@@ -22637,7 +22573,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B778">
         <v>1</v>
@@ -22645,7 +22581,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B779">
         <v>1</v>
@@ -22653,7 +22589,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B780">
         <v>1</v>
@@ -22661,7 +22597,7 @@
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B781">
         <v>1</v>
@@ -22669,7 +22605,7 @@
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B782">
         <v>1</v>
@@ -24197,7 +24133,7 @@
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B973">
         <v>1</v>
@@ -24205,7 +24141,7 @@
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B974">
         <v>1</v>
@@ -24213,7 +24149,7 @@
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B975">
         <v>1</v>
@@ -24221,7 +24157,7 @@
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B976">
         <v>1</v>
@@ -24229,7 +24165,7 @@
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B977">
         <v>1</v>
@@ -24237,7 +24173,7 @@
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B978">
         <v>1</v>
@@ -25029,7 +24965,7 @@
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1077" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B1077">
         <v>1</v>
@@ -25037,7 +24973,7 @@
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1078" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B1078">
         <v>1</v>
@@ -25045,7 +24981,7 @@
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1079" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B1079">
         <v>1</v>
@@ -25053,7 +24989,7 @@
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1080">
         <v>1</v>
@@ -25061,7 +24997,7 @@
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1081" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1081">
         <v>1</v>
@@ -25069,7 +25005,7 @@
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B1082">
         <v>1</v>
@@ -25269,7 +25205,7 @@
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1107" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B1107">
         <v>1</v>
@@ -25277,7 +25213,7 @@
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1108" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1108">
         <v>1</v>
@@ -25285,7 +25221,7 @@
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1109" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B1109">
         <v>1</v>
@@ -25293,7 +25229,7 @@
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1110" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B1110">
         <v>1</v>
@@ -25301,7 +25237,7 @@
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1111" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B1111">
         <v>1</v>
@@ -25309,7 +25245,7 @@
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B1112">
         <v>1</v>
@@ -25912,7 +25848,7 @@
         <v>1173</v>
       </c>
       <c r="B1187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.3">
@@ -25920,7 +25856,7 @@
         <v>1174</v>
       </c>
       <c r="B1188">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.3">
@@ -25928,7 +25864,7 @@
         <v>1175</v>
       </c>
       <c r="B1189">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.3">
@@ -25936,7 +25872,7 @@
         <v>1176</v>
       </c>
       <c r="B1190">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.3">
@@ -25944,7 +25880,7 @@
         <v>1177</v>
       </c>
       <c r="B1191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.3">
@@ -25952,7 +25888,7 @@
         <v>1178</v>
       </c>
       <c r="B1192">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.3">
@@ -26773,7 +26709,7 @@
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1295" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B1295">
         <v>2</v>
@@ -26781,7 +26717,7 @@
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1296" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B1296">
         <v>2</v>
@@ -26789,7 +26725,7 @@
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1297" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B1297">
         <v>2</v>
@@ -26797,7 +26733,7 @@
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1298" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B1298">
         <v>2</v>
@@ -26805,7 +26741,7 @@
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1299" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B1299">
         <v>2</v>
@@ -26813,7 +26749,7 @@
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1300" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B1300">
         <v>2</v>
@@ -26821,7 +26757,7 @@
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1301" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B1301">
         <v>2</v>
@@ -26829,7 +26765,7 @@
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1302" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B1302">
         <v>2</v>
@@ -28645,7 +28581,7 @@
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1529" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B1529">
         <v>2</v>
@@ -28653,7 +28589,7 @@
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1530" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B1530">
         <v>2</v>
@@ -28661,7 +28597,7 @@
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1531" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B1531">
         <v>2</v>
@@ -28669,7 +28605,7 @@
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1532" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B1532">
         <v>2</v>
@@ -28677,7 +28613,7 @@
     </row>
     <row r="1533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1533" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B1533">
         <v>2</v>
@@ -28685,7 +28621,7 @@
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1534" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B1534">
         <v>2</v>
@@ -28693,7 +28629,7 @@
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1535" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B1535">
         <v>2</v>
@@ -28701,7 +28637,7 @@
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1536" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B1536">
         <v>2</v>
@@ -29197,7 +29133,7 @@
     </row>
     <row r="1598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1598" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B1598">
         <v>2</v>
@@ -29205,7 +29141,7 @@
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1599" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B1599">
         <v>2</v>
@@ -29213,7 +29149,7 @@
     </row>
     <row r="1600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1600" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B1600">
         <v>2</v>
@@ -29221,7 +29157,7 @@
     </row>
     <row r="1601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1601" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B1601">
         <v>2</v>
@@ -29229,7 +29165,7 @@
     </row>
     <row r="1602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1602" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B1602">
         <v>2</v>
@@ -29237,7 +29173,7 @@
     </row>
     <row r="1603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1603" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B1603">
         <v>2</v>
@@ -29245,7 +29181,7 @@
     </row>
     <row r="1604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1604" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B1604">
         <v>2</v>
@@ -29253,7 +29189,7 @@
     </row>
     <row r="1605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1605" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B1605">
         <v>2</v>
@@ -29261,7 +29197,7 @@
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1606" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B1606">
         <v>2</v>
@@ -29405,7 +29341,7 @@
     </row>
     <row r="1624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1624" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B1624">
         <v>2</v>
@@ -29413,7 +29349,7 @@
     </row>
     <row r="1625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1625" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B1625">
         <v>2</v>
@@ -29421,7 +29357,7 @@
     </row>
     <row r="1626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1626" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B1626">
         <v>2</v>
@@ -29429,7 +29365,7 @@
     </row>
     <row r="1627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1627" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B1627">
         <v>2</v>
@@ -29437,7 +29373,7 @@
     </row>
     <row r="1628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1628" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B1628">
         <v>2</v>
@@ -29445,7 +29381,7 @@
     </row>
     <row r="1629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1629" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B1629">
         <v>2</v>
@@ -29453,7 +29389,7 @@
     </row>
     <row r="1630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1630" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B1630">
         <v>2</v>
@@ -29461,7 +29397,7 @@
     </row>
     <row r="1631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1631" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B1631">
         <v>2</v>
@@ -29525,7 +29461,7 @@
     </row>
     <row r="1639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1639" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B1639">
         <v>2</v>
@@ -29533,7 +29469,7 @@
     </row>
     <row r="1640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1640" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B1640">
         <v>2</v>
@@ -29541,7 +29477,7 @@
     </row>
     <row r="1641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1641" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B1641">
         <v>2</v>
@@ -29549,7 +29485,7 @@
     </row>
     <row r="1642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1642" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="B1642">
         <v>2</v>
@@ -29557,7 +29493,7 @@
     </row>
     <row r="1643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1643" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="B1643">
         <v>2</v>
@@ -29565,7 +29501,7 @@
     </row>
     <row r="1644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1644" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="B1644">
         <v>2</v>
@@ -29573,7 +29509,7 @@
     </row>
     <row r="1645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1645" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="B1645">
         <v>2</v>
@@ -29581,7 +29517,7 @@
     </row>
     <row r="1646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1646" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="B1646">
         <v>2</v>
@@ -29589,7 +29525,7 @@
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1647" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B1647">
         <v>2</v>
@@ -29597,7 +29533,7 @@
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1648" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B1648">
         <v>2</v>
@@ -29605,7 +29541,7 @@
     </row>
     <row r="1649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1649" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B1649">
         <v>2</v>
@@ -29621,7 +29557,7 @@
     </row>
     <row r="1651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1651" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="B1651">
         <v>2</v>
@@ -29629,7 +29565,7 @@
     </row>
     <row r="1652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1652" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B1652">
         <v>2</v>
@@ -29637,7 +29573,7 @@
     </row>
     <row r="1653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1653" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B1653">
         <v>2</v>
@@ -29645,7 +29581,7 @@
     </row>
     <row r="1654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1654" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B1654">
         <v>2</v>
@@ -29653,7 +29589,7 @@
     </row>
     <row r="1655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1655" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B1655">
         <v>2</v>
@@ -29661,7 +29597,7 @@
     </row>
     <row r="1656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1656" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B1656">
         <v>2</v>
@@ -29669,7 +29605,7 @@
     </row>
     <row r="1657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1657" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B1657">
         <v>2</v>
@@ -29677,7 +29613,7 @@
     </row>
     <row r="1658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1658" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B1658">
         <v>2</v>
@@ -29685,7 +29621,7 @@
     </row>
     <row r="1659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1659" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B1659">
         <v>2</v>
@@ -30349,7 +30285,7 @@
     </row>
     <row r="1742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1742" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B1742">
         <v>2</v>
@@ -30357,7 +30293,7 @@
     </row>
     <row r="1743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1743" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B1743">
         <v>2</v>
@@ -30365,7 +30301,7 @@
     </row>
     <row r="1744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1744" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B1744">
         <v>2</v>
@@ -30373,7 +30309,7 @@
     </row>
     <row r="1745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1745" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B1745">
         <v>2</v>
@@ -30381,7 +30317,7 @@
     </row>
     <row r="1746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1746" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B1746">
         <v>2</v>
@@ -30389,7 +30325,7 @@
     </row>
     <row r="1747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1747" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B1747">
         <v>2</v>
@@ -30397,7 +30333,7 @@
     </row>
     <row r="1748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1748" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B1748">
         <v>2</v>
@@ -30405,7 +30341,7 @@
     </row>
     <row r="1749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1749" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B1749">
         <v>2</v>
@@ -30413,7 +30349,7 @@
     </row>
     <row r="1750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1750" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1750">
         <v>2</v>
@@ -30829,7 +30765,7 @@
     </row>
     <row r="1802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1802" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B1802">
         <v>2</v>
@@ -30837,7 +30773,7 @@
     </row>
     <row r="1803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1803" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B1803">
         <v>2</v>
@@ -30845,7 +30781,7 @@
     </row>
     <row r="1804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1804" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B1804">
         <v>2</v>
@@ -30853,7 +30789,7 @@
     </row>
     <row r="1805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1805" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B1805">
         <v>2</v>
@@ -30861,7 +30797,7 @@
     </row>
     <row r="1806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1806" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B1806">
         <v>2</v>
@@ -30869,7 +30805,7 @@
     </row>
     <row r="1807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1807" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B1807">
         <v>2</v>
@@ -30877,7 +30813,7 @@
     </row>
     <row r="1808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1808" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B1808">
         <v>2</v>
@@ -30885,7 +30821,7 @@
     </row>
     <row r="1809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1809" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B1809">
         <v>2</v>
@@ -30997,7 +30933,7 @@
     </row>
     <row r="1823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1823" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="B1823">
         <v>2</v>
@@ -31005,7 +30941,7 @@
     </row>
     <row r="1824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1824" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B1824">
         <v>2</v>
@@ -31013,7 +30949,7 @@
     </row>
     <row r="1825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1825" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B1825">
         <v>2</v>
@@ -31021,7 +30957,7 @@
     </row>
     <row r="1826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1826" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B1826">
         <v>2</v>
@@ -31029,7 +30965,7 @@
     </row>
     <row r="1827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1827" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B1827">
         <v>2</v>
@@ -31037,7 +30973,7 @@
     </row>
     <row r="1828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1828" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B1828">
         <v>2</v>
@@ -31045,7 +30981,7 @@
     </row>
     <row r="1829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1829" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B1829">
         <v>2</v>
@@ -31053,7 +30989,7 @@
     </row>
     <row r="1830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1830" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B1830">
         <v>2</v>
@@ -31061,7 +30997,7 @@
     </row>
     <row r="1831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1831" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B1831">
         <v>2</v>
@@ -32093,7 +32029,7 @@
     </row>
     <row r="1960" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1960" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B1960">
         <v>2</v>
@@ -32101,7 +32037,7 @@
     </row>
     <row r="1961" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1961" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B1961">
         <v>2</v>
@@ -32109,7 +32045,7 @@
     </row>
     <row r="1962" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1962" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B1962">
         <v>2</v>
@@ -32117,7 +32053,7 @@
     </row>
     <row r="1963" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1963" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B1963">
         <v>2</v>
@@ -32125,7 +32061,7 @@
     </row>
     <row r="1964" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1964" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B1964">
         <v>2</v>
@@ -32133,7 +32069,7 @@
     </row>
     <row r="1965" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1965" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B1965">
         <v>2</v>
@@ -32141,7 +32077,7 @@
     </row>
     <row r="1966" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1966" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B1966">
         <v>2</v>
@@ -32149,7 +32085,7 @@
     </row>
     <row r="1967" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1967" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B1967">
         <v>2</v>
@@ -32293,7 +32229,7 @@
     </row>
     <row r="1985" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1985" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B1985">
         <v>2</v>
@@ -32301,7 +32237,7 @@
     </row>
     <row r="1986" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1986" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B1986">
         <v>2</v>
@@ -32309,7 +32245,7 @@
     </row>
     <row r="1987" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1987" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B1987">
         <v>2</v>
@@ -32317,7 +32253,7 @@
     </row>
     <row r="1988" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1988" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B1988">
         <v>2</v>
@@ -32325,7 +32261,7 @@
     </row>
     <row r="1989" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1989" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B1989">
         <v>2</v>
@@ -32333,7 +32269,7 @@
     </row>
     <row r="1990" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1990" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B1990">
         <v>2</v>
@@ -32341,7 +32277,7 @@
     </row>
     <row r="1991" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1991" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B1991">
         <v>2</v>
@@ -32349,7 +32285,7 @@
     </row>
     <row r="1992" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1992" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B1992">
         <v>2</v>
@@ -32357,7 +32293,7 @@
     </row>
     <row r="1993" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1993" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B1993">
         <v>2</v>
@@ -32549,7 +32485,7 @@
     </row>
     <row r="2017" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2017" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B2017">
         <v>2</v>
@@ -32557,7 +32493,7 @@
     </row>
     <row r="2018" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2018" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B2018">
         <v>2</v>
@@ -32565,7 +32501,7 @@
     </row>
     <row r="2019" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2019" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B2019">
         <v>2</v>
@@ -32573,7 +32509,7 @@
     </row>
     <row r="2020" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2020" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B2020">
         <v>2</v>
@@ -32581,7 +32517,7 @@
     </row>
     <row r="2021" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2021" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B2021">
         <v>2</v>
@@ -32589,7 +32525,7 @@
     </row>
     <row r="2022" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2022" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B2022">
         <v>2</v>
@@ -32597,7 +32533,7 @@
     </row>
     <row r="2023" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2023" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B2023">
         <v>2</v>
@@ -32605,7 +32541,7 @@
     </row>
     <row r="2024" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2024" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B2024">
         <v>2</v>
@@ -33421,7 +33357,7 @@
     </row>
     <row r="2126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2126" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="B2126">
         <v>2</v>
@@ -33429,7 +33365,7 @@
     </row>
     <row r="2127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2127" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B2127">
         <v>2</v>
@@ -33437,7 +33373,7 @@
     </row>
     <row r="2128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2128" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B2128">
         <v>2</v>
@@ -33445,7 +33381,7 @@
     </row>
     <row r="2129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2129" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B2129">
         <v>2</v>
@@ -33453,7 +33389,7 @@
     </row>
     <row r="2130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2130" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B2130">
         <v>2</v>
@@ -33461,7 +33397,7 @@
     </row>
     <row r="2131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2131" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B2131">
         <v>2</v>
@@ -33469,7 +33405,7 @@
     </row>
     <row r="2132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2132" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B2132">
         <v>2</v>
@@ -33477,7 +33413,7 @@
     </row>
     <row r="2133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2133" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B2133">
         <v>2</v>
@@ -33485,7 +33421,7 @@
     </row>
     <row r="2134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2134" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="B2134">
         <v>2</v>
@@ -33517,7 +33453,7 @@
     </row>
     <row r="2138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2138" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B2138">
         <v>2</v>
@@ -33525,7 +33461,7 @@
     </row>
     <row r="2139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2139" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B2139">
         <v>2</v>
@@ -33533,7 +33469,7 @@
     </row>
     <row r="2140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2140" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B2140">
         <v>2</v>
@@ -33541,7 +33477,7 @@
     </row>
     <row r="2141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2141" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B2141">
         <v>2</v>
@@ -33549,7 +33485,7 @@
     </row>
     <row r="2142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2142" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B2142">
         <v>2</v>
@@ -33557,7 +33493,7 @@
     </row>
     <row r="2143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2143" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B2143">
         <v>2</v>
@@ -33565,7 +33501,7 @@
     </row>
     <row r="2144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2144" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B2144">
         <v>2</v>
@@ -33573,7 +33509,7 @@
     </row>
     <row r="2145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2145" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B2145">
         <v>2</v>
@@ -33613,7 +33549,7 @@
     </row>
     <row r="2150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2150" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="B2150">
         <v>2</v>
@@ -33621,7 +33557,7 @@
     </row>
     <row r="2151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2151" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B2151">
         <v>2</v>
@@ -33629,7 +33565,7 @@
     </row>
     <row r="2152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2152" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B2152">
         <v>2</v>
@@ -33637,7 +33573,7 @@
     </row>
     <row r="2153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2153" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B2153">
         <v>2</v>
@@ -33645,7 +33581,7 @@
     </row>
     <row r="2154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2154" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B2154">
         <v>2</v>
@@ -33653,7 +33589,7 @@
     </row>
     <row r="2155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2155" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B2155">
         <v>2</v>
@@ -33661,7 +33597,7 @@
     </row>
     <row r="2156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2156" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B2156">
         <v>2</v>
@@ -33669,7 +33605,7 @@
     </row>
     <row r="2157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2157" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B2157">
         <v>2</v>
@@ -33677,7 +33613,7 @@
     </row>
     <row r="2158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2158" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="B2158">
         <v>2</v>
@@ -33901,7 +33837,7 @@
     </row>
     <row r="2186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2186" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B2186">
         <v>2</v>
@@ -33909,7 +33845,7 @@
     </row>
     <row r="2187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2187" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B2187">
         <v>2</v>
@@ -33917,7 +33853,7 @@
     </row>
     <row r="2188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2188" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B2188">
         <v>2</v>
@@ -33925,7 +33861,7 @@
     </row>
     <row r="2189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2189" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B2189">
         <v>2</v>
@@ -33933,7 +33869,7 @@
     </row>
     <row r="2190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2190" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B2190">
         <v>2</v>
@@ -33941,7 +33877,7 @@
     </row>
     <row r="2191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2191" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="B2191">
         <v>2</v>
@@ -33949,7 +33885,7 @@
     </row>
     <row r="2192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2192" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="B2192">
         <v>2</v>
@@ -33957,7 +33893,7 @@
     </row>
     <row r="2193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2193" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="B2193">
         <v>2</v>
@@ -33965,7 +33901,7 @@
     </row>
     <row r="2194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2194" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B2194">
         <v>2</v>
@@ -33973,7 +33909,7 @@
     </row>
     <row r="2195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2195" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B2195">
         <v>2</v>
@@ -33981,7 +33917,7 @@
     </row>
     <row r="2196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2196" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B2196">
         <v>2</v>
@@ -33989,7 +33925,7 @@
     </row>
     <row r="2197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2197" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B2197">
         <v>2</v>
@@ -33997,7 +33933,7 @@
     </row>
     <row r="2198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2198" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B2198">
         <v>2</v>
@@ -34277,7 +34213,7 @@
     </row>
     <row r="2233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2233" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="B2233">
         <v>2</v>
@@ -34285,7 +34221,7 @@
     </row>
     <row r="2234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2234" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B2234">
         <v>2</v>
@@ -34293,7 +34229,7 @@
     </row>
     <row r="2235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2235" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B2235">
         <v>2</v>
@@ -34301,7 +34237,7 @@
     </row>
     <row r="2236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2236" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B2236">
         <v>2</v>
@@ -34309,7 +34245,7 @@
     </row>
     <row r="2237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2237" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B2237">
         <v>2</v>
@@ -34317,7 +34253,7 @@
     </row>
     <row r="2238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2238" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B2238">
         <v>2</v>
@@ -34325,7 +34261,7 @@
     </row>
     <row r="2239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2239" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B2239">
         <v>2</v>
@@ -34333,7 +34269,7 @@
     </row>
     <row r="2240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2240" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B2240">
         <v>2</v>
@@ -34341,7 +34277,7 @@
     </row>
     <row r="2241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2241" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B2241">
         <v>2</v>
@@ -34789,7 +34725,7 @@
     </row>
     <row r="2297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2297" t="s">
-        <v>2263</v>
+        <v>2257</v>
       </c>
       <c r="B2297">
         <v>2</v>
@@ -34797,7 +34733,7 @@
     </row>
     <row r="2298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2298" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="B2298">
         <v>2</v>
@@ -34805,7 +34741,7 @@
     </row>
     <row r="2299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2299" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="B2299">
         <v>2</v>
@@ -34813,7 +34749,7 @@
     </row>
     <row r="2300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2300" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="B2300">
         <v>2</v>
@@ -34821,7 +34757,7 @@
     </row>
     <row r="2301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2301" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B2301">
         <v>2</v>
@@ -34829,7 +34765,7 @@
     </row>
     <row r="2302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2302" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="B2302">
         <v>2</v>
@@ -34837,7 +34773,7 @@
     </row>
     <row r="2303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2303" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="B2303">
         <v>2</v>
@@ -34845,7 +34781,7 @@
     </row>
     <row r="2304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2304" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B2304">
         <v>2</v>
@@ -34853,7 +34789,7 @@
     </row>
     <row r="2305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2305" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B2305">
         <v>2</v>
@@ -34861,7 +34797,7 @@
     </row>
     <row r="2306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2306" t="s">
-        <v>2266</v>
+        <v>2271</v>
       </c>
       <c r="B2306">
         <v>2</v>
@@ -34949,7 +34885,7 @@
     </row>
     <row r="2317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2317" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="B2317">
         <v>2</v>
@@ -34957,7 +34893,7 @@
     </row>
     <row r="2318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2318" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="B2318">
         <v>2</v>
@@ -34965,7 +34901,7 @@
     </row>
     <row r="2319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2319" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B2319">
         <v>2</v>
@@ -34973,7 +34909,7 @@
     </row>
     <row r="2320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2320" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B2320">
         <v>2</v>
@@ -34981,7 +34917,7 @@
     </row>
     <row r="2321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2321" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B2321">
         <v>2</v>
@@ -34989,7 +34925,7 @@
     </row>
     <row r="2322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2322" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="B2322">
         <v>2</v>
@@ -34997,7 +34933,7 @@
     </row>
     <row r="2323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2323" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B2323">
         <v>2</v>
@@ -35005,7 +34941,7 @@
     </row>
     <row r="2324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2324" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="B2324">
         <v>2</v>
@@ -35013,7 +34949,7 @@
     </row>
     <row r="2325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2325" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B2325">
         <v>2</v>
@@ -35021,7 +34957,7 @@
     </row>
     <row r="2326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2326" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="B2326">
         <v>2</v>
@@ -35613,7 +35549,7 @@
     </row>
     <row r="2400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2400" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B2400">
         <v>2</v>
@@ -35621,7 +35557,7 @@
     </row>
     <row r="2401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2401" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B2401">
         <v>2</v>
@@ -35629,7 +35565,7 @@
     </row>
     <row r="2402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2402" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B2402">
         <v>2</v>
@@ -35637,7 +35573,7 @@
     </row>
     <row r="2403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2403" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B2403">
         <v>2</v>
@@ -35645,7 +35581,7 @@
     </row>
     <row r="2404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2404" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B2404">
         <v>2</v>
@@ -35653,7 +35589,7 @@
     </row>
     <row r="2405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2405" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B2405">
         <v>2</v>
@@ -35661,7 +35597,7 @@
     </row>
     <row r="2406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2406" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B2406">
         <v>2</v>
@@ -35669,7 +35605,7 @@
     </row>
     <row r="2407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2407" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B2407">
         <v>2</v>
@@ -35677,7 +35613,7 @@
     </row>
     <row r="2408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2408" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B2408">
         <v>2</v>
@@ -36549,7 +36485,7 @@
     </row>
     <row r="2517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2517" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B2517">
         <v>2</v>
@@ -36557,7 +36493,7 @@
     </row>
     <row r="2518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2518" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B2518">
         <v>2</v>
@@ -36565,7 +36501,7 @@
     </row>
     <row r="2519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2519" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B2519">
         <v>2</v>
@@ -36573,7 +36509,7 @@
     </row>
     <row r="2520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2520" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B2520">
         <v>2</v>
@@ -36581,7 +36517,7 @@
     </row>
     <row r="2521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2521" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B2521">
         <v>2</v>
@@ -36589,7 +36525,7 @@
     </row>
     <row r="2522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2522" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="B2522">
         <v>2</v>
@@ -36597,7 +36533,7 @@
     </row>
     <row r="2523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2523" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B2523">
         <v>2</v>
@@ -36605,7 +36541,7 @@
     </row>
     <row r="2524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2524" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B2524">
         <v>2</v>
@@ -36613,7 +36549,7 @@
     </row>
     <row r="2525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2525" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B2525">
         <v>2</v>
@@ -36933,7 +36869,7 @@
     </row>
     <row r="2565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2565" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="B2565">
         <v>2</v>
@@ -36941,7 +36877,7 @@
     </row>
     <row r="2566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2566" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="B2566">
         <v>2</v>
@@ -36949,7 +36885,7 @@
     </row>
     <row r="2567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2567" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="B2567">
         <v>2</v>
@@ -36957,7 +36893,7 @@
     </row>
     <row r="2568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2568" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="B2568">
         <v>2</v>
@@ -36965,7 +36901,7 @@
     </row>
     <row r="2569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2569" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B2569">
         <v>2</v>
@@ -36973,7 +36909,7 @@
     </row>
     <row r="2570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2570" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B2570">
         <v>2</v>
@@ -36981,7 +36917,7 @@
     </row>
     <row r="2571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2571" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="B2571">
         <v>2</v>
@@ -36989,7 +36925,7 @@
     </row>
     <row r="2572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2572" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B2572">
         <v>2</v>
@@ -36997,7 +36933,7 @@
     </row>
     <row r="2573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2573" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B2573">
         <v>2</v>
@@ -37037,7 +36973,7 @@
     </row>
     <row r="2578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2578" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B2578">
         <v>2</v>
@@ -37045,7 +36981,7 @@
     </row>
     <row r="2579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2579" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="B2579">
         <v>2</v>
@@ -37053,7 +36989,7 @@
     </row>
     <row r="2580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2580" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B2580">
         <v>2</v>
@@ -37061,7 +36997,7 @@
     </row>
     <row r="2581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2581" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="B2581">
         <v>2</v>
@@ -37069,7 +37005,7 @@
     </row>
     <row r="2582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2582" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="B2582">
         <v>2</v>
@@ -37077,7 +37013,7 @@
     </row>
     <row r="2583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2583" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="B2583">
         <v>2</v>
@@ -37085,7 +37021,7 @@
     </row>
     <row r="2584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2584" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="B2584">
         <v>2</v>
@@ -37093,7 +37029,7 @@
     </row>
     <row r="2585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2585" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="B2585">
         <v>2</v>
@@ -37101,7 +37037,7 @@
     </row>
     <row r="2586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2586" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="B2586">
         <v>2</v>
@@ -37349,7 +37285,7 @@
     </row>
     <row r="2617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2617" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="B2617">
         <v>2</v>
@@ -37357,7 +37293,7 @@
     </row>
     <row r="2618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2618" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="B2618">
         <v>2</v>
@@ -37365,7 +37301,7 @@
     </row>
     <row r="2619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2619" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B2619">
         <v>2</v>
@@ -37373,7 +37309,7 @@
     </row>
     <row r="2620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2620" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="B2620">
         <v>2</v>
@@ -37381,7 +37317,7 @@
     </row>
     <row r="2621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2621" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="B2621">
         <v>2</v>
@@ -37389,7 +37325,7 @@
     </row>
     <row r="2622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2622" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="B2622">
         <v>2</v>
@@ -37397,7 +37333,7 @@
     </row>
     <row r="2623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2623" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B2623">
         <v>2</v>
@@ -37405,7 +37341,7 @@
     </row>
     <row r="2624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2624" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="B2624">
         <v>2</v>
@@ -37413,7 +37349,7 @@
     </row>
     <row r="2625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2625" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="B2625">
         <v>2</v>
@@ -37421,7 +37357,7 @@
     </row>
     <row r="2626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2626" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="B2626">
         <v>2</v>
@@ -37901,7 +37837,7 @@
     </row>
     <row r="2686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2686" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="B2686">
         <v>2</v>
@@ -37909,7 +37845,7 @@
     </row>
     <row r="2687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2687" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="B2687">
         <v>2</v>
@@ -37917,7 +37853,7 @@
     </row>
     <row r="2688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2688" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="B2688">
         <v>2</v>
@@ -37925,7 +37861,7 @@
     </row>
     <row r="2689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2689" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="B2689">
         <v>2</v>
@@ -37933,7 +37869,7 @@
     </row>
     <row r="2690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2690" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="B2690">
         <v>2</v>
@@ -37941,7 +37877,7 @@
     </row>
     <row r="2691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2691" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="B2691">
         <v>2</v>
@@ -37949,7 +37885,7 @@
     </row>
     <row r="2692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2692" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B2692">
         <v>2</v>
@@ -37957,7 +37893,7 @@
     </row>
     <row r="2693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2693" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B2693">
         <v>2</v>
@@ -37965,7 +37901,7 @@
     </row>
     <row r="2694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2694" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="B2694">
         <v>2</v>
@@ -37973,7 +37909,7 @@
     </row>
     <row r="2695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2695" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="B2695">
         <v>2</v>
@@ -38581,7 +38517,7 @@
     </row>
     <row r="2771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2771" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B2771">
         <v>2</v>
@@ -38589,7 +38525,7 @@
     </row>
     <row r="2772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2772" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="B2772">
         <v>2</v>
@@ -38597,7 +38533,7 @@
     </row>
     <row r="2773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2773" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B2773">
         <v>2</v>
@@ -38605,7 +38541,7 @@
     </row>
     <row r="2774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2774" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B2774">
         <v>2</v>
@@ -38613,7 +38549,7 @@
     </row>
     <row r="2775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2775" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="B2775">
         <v>2</v>
@@ -38621,7 +38557,7 @@
     </row>
     <row r="2776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2776" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="B2776">
         <v>2</v>
@@ -38629,7 +38565,7 @@
     </row>
     <row r="2777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2777" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="B2777">
         <v>2</v>
@@ -38637,7 +38573,7 @@
     </row>
     <row r="2778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2778" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="B2778">
         <v>2</v>
@@ -38645,7 +38581,7 @@
     </row>
     <row r="2779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2779" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="B2779">
         <v>2</v>
@@ -38653,7 +38589,7 @@
     </row>
     <row r="2780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2780" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="B2780">
         <v>2</v>
@@ -39093,7 +39029,7 @@
     </row>
     <row r="2835" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2835" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="B2835">
         <v>2</v>
@@ -39101,7 +39037,7 @@
     </row>
     <row r="2836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2836" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="B2836">
         <v>2</v>
@@ -39109,7 +39045,7 @@
     </row>
     <row r="2837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2837" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="B2837">
         <v>2</v>
@@ -39117,7 +39053,7 @@
     </row>
     <row r="2838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2838" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B2838">
         <v>2</v>
@@ -39125,7 +39061,7 @@
     </row>
     <row r="2839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2839" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B2839">
         <v>2</v>
@@ -39133,7 +39069,7 @@
     </row>
     <row r="2840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2840" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B2840">
         <v>2</v>
@@ -39141,7 +39077,7 @@
     </row>
     <row r="2841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2841" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B2841">
         <v>2</v>
@@ -39149,7 +39085,7 @@
     </row>
     <row r="2842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2842" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B2842">
         <v>2</v>
@@ -39157,7 +39093,7 @@
     </row>
     <row r="2843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2843" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B2843">
         <v>2</v>
@@ -39165,7 +39101,7 @@
     </row>
     <row r="2844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2844" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="B2844">
         <v>2</v>
@@ -39173,7 +39109,7 @@
     </row>
     <row r="2845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2845" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="B2845">
         <v>2</v>
@@ -39285,7 +39221,7 @@
     </row>
     <row r="2859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2859" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B2859">
         <v>2</v>
@@ -39293,7 +39229,7 @@
     </row>
     <row r="2860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2860" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B2860">
         <v>2</v>
@@ -39301,7 +39237,7 @@
     </row>
     <row r="2861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2861" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B2861">
         <v>2</v>
@@ -39309,7 +39245,7 @@
     </row>
     <row r="2862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2862" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B2862">
         <v>2</v>
@@ -39317,7 +39253,7 @@
     </row>
     <row r="2863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2863" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B2863">
         <v>2</v>
@@ -39325,7 +39261,7 @@
     </row>
     <row r="2864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2864" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="B2864">
         <v>2</v>
@@ -39333,7 +39269,7 @@
     </row>
     <row r="2865" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2865" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="B2865">
         <v>2</v>
@@ -39341,7 +39277,7 @@
     </row>
     <row r="2866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2866" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="B2866">
         <v>2</v>
@@ -39349,7 +39285,7 @@
     </row>
     <row r="2867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2867" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="B2867">
         <v>2</v>
@@ -39357,7 +39293,7 @@
     </row>
     <row r="2868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2868" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="B2868">
         <v>2</v>
@@ -39365,7 +39301,7 @@
     </row>
     <row r="2869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2869" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="B2869">
         <v>2</v>
@@ -39373,7 +39309,7 @@
     </row>
     <row r="2870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2870" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="B2870">
         <v>2</v>
@@ -39381,7 +39317,7 @@
     </row>
     <row r="2871" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2871" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="B2871">
         <v>2</v>
@@ -39389,7 +39325,7 @@
     </row>
     <row r="2872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2872" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="B2872">
         <v>2</v>
@@ -39397,7 +39333,7 @@
     </row>
     <row r="2873" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2873" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="B2873">
         <v>2</v>
@@ -39405,7 +39341,7 @@
     </row>
     <row r="2874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2874" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="B2874">
         <v>2</v>
@@ -39413,7 +39349,7 @@
     </row>
     <row r="2875" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2875" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B2875">
         <v>2</v>
@@ -39421,7 +39357,7 @@
     </row>
     <row r="2876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2876" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="B2876">
         <v>2</v>
@@ -39429,7 +39365,7 @@
     </row>
     <row r="2877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2877" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="B2877">
         <v>2</v>
@@ -39437,7 +39373,7 @@
     </row>
     <row r="2878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2878" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="B2878">
         <v>2</v>
@@ -39445,7 +39381,7 @@
     </row>
     <row r="2879" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2879" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="B2879">
         <v>2</v>
@@ -39453,7 +39389,7 @@
     </row>
     <row r="2880" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2880" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="B2880">
         <v>2</v>
@@ -39461,7 +39397,7 @@
     </row>
     <row r="2881" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2881" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="B2881">
         <v>2</v>
@@ -39469,7 +39405,7 @@
     </row>
     <row r="2882" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2882" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="B2882">
         <v>2</v>
@@ -39909,7 +39845,7 @@
     </row>
     <row r="2937" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2937" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="B2937">
         <v>2</v>
@@ -39917,7 +39853,7 @@
     </row>
     <row r="2938" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2938" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B2938">
         <v>2</v>
@@ -39925,7 +39861,7 @@
     </row>
     <row r="2939" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2939" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="B2939">
         <v>2</v>
@@ -39933,7 +39869,7 @@
     </row>
     <row r="2940" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2940" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="B2940">
         <v>2</v>
@@ -39941,7 +39877,7 @@
     </row>
     <row r="2941" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2941" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="B2941">
         <v>2</v>
@@ -39949,7 +39885,7 @@
     </row>
     <row r="2942" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2942" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="B2942">
         <v>2</v>
@@ -39957,7 +39893,7 @@
     </row>
     <row r="2943" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2943" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B2943">
         <v>2</v>
@@ -39965,7 +39901,7 @@
     </row>
     <row r="2944" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2944" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="B2944">
         <v>2</v>
@@ -39973,7 +39909,7 @@
     </row>
     <row r="2945" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2945" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B2945">
         <v>2</v>
@@ -39981,7 +39917,7 @@
     </row>
     <row r="2946" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2946" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B2946">
         <v>2</v>
@@ -40208,7 +40144,7 @@
         <v>2926</v>
       </c>
       <c r="B2974">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2975" spans="1:2" x14ac:dyDescent="0.3">
@@ -40216,7 +40152,7 @@
         <v>2927</v>
       </c>
       <c r="B2975">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2976" spans="1:2" x14ac:dyDescent="0.3">
@@ -40224,7 +40160,7 @@
         <v>2928</v>
       </c>
       <c r="B2976">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2977" spans="1:2" x14ac:dyDescent="0.3">
@@ -40232,7 +40168,7 @@
         <v>2929</v>
       </c>
       <c r="B2977">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2978" spans="1:2" x14ac:dyDescent="0.3">
@@ -40240,52 +40176,52 @@
         <v>2930</v>
       </c>
       <c r="B2978">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2979" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2979" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="B2979">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2980" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2980" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="B2980">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2981" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2981" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="B2981">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2982" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2982" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="B2982">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2983" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2983" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="B2983">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2984" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2984" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="B2984">
         <v>3</v>
@@ -40293,7 +40229,7 @@
     </row>
     <row r="2985" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2985" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="B2985">
         <v>3</v>
@@ -40301,7 +40237,7 @@
     </row>
     <row r="2986" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2986" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="B2986">
         <v>3</v>
@@ -40309,7 +40245,7 @@
     </row>
     <row r="2987" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2987" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="B2987">
         <v>3</v>
@@ -40317,7 +40253,7 @@
     </row>
     <row r="2988" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2988" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="B2988">
         <v>3</v>
@@ -40429,7 +40365,7 @@
     </row>
     <row r="3002" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3002" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B3002">
         <v>3</v>
@@ -40437,7 +40373,7 @@
     </row>
     <row r="3003" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3003" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="B3003">
         <v>3</v>
@@ -40445,7 +40381,7 @@
     </row>
     <row r="3004" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3004" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="B3004">
         <v>3</v>
@@ -40453,7 +40389,7 @@
     </row>
     <row r="3005" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3005" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="B3005">
         <v>3</v>
@@ -40461,7 +40397,7 @@
     </row>
     <row r="3006" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3006" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="B3006">
         <v>3</v>
@@ -40469,7 +40405,7 @@
     </row>
     <row r="3007" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3007" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="B3007">
         <v>3</v>
@@ -40477,7 +40413,7 @@
     </row>
     <row r="3008" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3008" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="B3008">
         <v>3</v>
@@ -40485,7 +40421,7 @@
     </row>
     <row r="3009" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3009" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="B3009">
         <v>3</v>
@@ -40493,7 +40429,7 @@
     </row>
     <row r="3010" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3010" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B3010">
         <v>3</v>
@@ -40501,7 +40437,7 @@
     </row>
     <row r="3011" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3011" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="B3011">
         <v>3</v>
@@ -41389,7 +41325,7 @@
     </row>
     <row r="3122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3122" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="B3122">
         <v>3</v>
@@ -41397,7 +41333,7 @@
     </row>
     <row r="3123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3123" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="B3123">
         <v>3</v>
@@ -41405,7 +41341,7 @@
     </row>
     <row r="3124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3124" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="B3124">
         <v>3</v>
@@ -41413,7 +41349,7 @@
     </row>
     <row r="3125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3125" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="B3125">
         <v>3</v>
@@ -41421,7 +41357,7 @@
     </row>
     <row r="3126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3126" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="B3126">
         <v>3</v>
@@ -41429,7 +41365,7 @@
     </row>
     <row r="3127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3127" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="B3127">
         <v>3</v>
@@ -41437,7 +41373,7 @@
     </row>
     <row r="3128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3128" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="B3128">
         <v>3</v>
@@ -41445,7 +41381,7 @@
     </row>
     <row r="3129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3129" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="B3129">
         <v>3</v>
@@ -41453,7 +41389,7 @@
     </row>
     <row r="3130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3130" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="B3130">
         <v>3</v>
@@ -41461,7 +41397,7 @@
     </row>
     <row r="3131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3131" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="B3131">
         <v>3</v>
@@ -41469,7 +41405,7 @@
     </row>
     <row r="3132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3132" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="B3132">
         <v>3</v>
@@ -41477,7 +41413,7 @@
     </row>
     <row r="3133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3133" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="B3133">
         <v>3</v>
@@ -41485,7 +41421,7 @@
     </row>
     <row r="3134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3134" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="B3134">
         <v>3</v>
@@ -41493,7 +41429,7 @@
     </row>
     <row r="3135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3135" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="B3135">
         <v>3</v>
@@ -41501,7 +41437,7 @@
     </row>
     <row r="3136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3136" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="B3136">
         <v>3</v>
@@ -41509,7 +41445,7 @@
     </row>
     <row r="3137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3137" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="B3137">
         <v>3</v>
@@ -41517,7 +41453,7 @@
     </row>
     <row r="3138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3138" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="B3138">
         <v>3</v>
@@ -41525,7 +41461,7 @@
     </row>
     <row r="3139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3139" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="B3139">
         <v>3</v>
@@ -41533,7 +41469,7 @@
     </row>
     <row r="3140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3140" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="B3140">
         <v>3</v>
@@ -41541,7 +41477,7 @@
     </row>
     <row r="3141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3141" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="B3141">
         <v>3</v>
@@ -41549,7 +41485,7 @@
     </row>
     <row r="3142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3142" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="B3142">
         <v>3</v>
@@ -41557,7 +41493,7 @@
     </row>
     <row r="3143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3143" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="B3143">
         <v>3</v>
@@ -41733,7 +41669,7 @@
     </row>
     <row r="3165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3165" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="B3165">
         <v>3</v>
@@ -41741,7 +41677,7 @@
     </row>
     <row r="3166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3166" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="B3166">
         <v>3</v>
@@ -41749,7 +41685,7 @@
     </row>
     <row r="3167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3167" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="B3167">
         <v>3</v>
@@ -41757,7 +41693,7 @@
     </row>
     <row r="3168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3168" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="B3168">
         <v>3</v>
@@ -41765,7 +41701,7 @@
     </row>
     <row r="3169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3169" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="B3169">
         <v>3</v>
@@ -41773,7 +41709,7 @@
     </row>
     <row r="3170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3170" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="B3170">
         <v>3</v>
@@ -41781,7 +41717,7 @@
     </row>
     <row r="3171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3171" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="B3171">
         <v>3</v>
@@ -41789,7 +41725,7 @@
     </row>
     <row r="3172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3172" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="B3172">
         <v>3</v>
@@ -41797,7 +41733,7 @@
     </row>
     <row r="3173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3173" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="B3173">
         <v>3</v>
@@ -41805,7 +41741,7 @@
     </row>
     <row r="3174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3174" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="B3174">
         <v>3</v>
@@ -41813,7 +41749,7 @@
     </row>
     <row r="3175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3175" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="B3175">
         <v>3</v>
@@ -41821,7 +41757,7 @@
     </row>
     <row r="3176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3176" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="B3176">
         <v>3</v>
@@ -41829,7 +41765,7 @@
     </row>
     <row r="3177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3177" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="B3177">
         <v>3</v>
@@ -42469,7 +42405,7 @@
     </row>
     <row r="3257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3257" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="B3257">
         <v>3</v>
@@ -42477,7 +42413,7 @@
     </row>
     <row r="3258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3258" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="B3258">
         <v>3</v>
@@ -42485,7 +42421,7 @@
     </row>
     <row r="3259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3259" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="B3259">
         <v>3</v>
@@ -42493,7 +42429,7 @@
     </row>
     <row r="3260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3260" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="B3260">
         <v>3</v>
@@ -42501,7 +42437,7 @@
     </row>
     <row r="3261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3261" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="B3261">
         <v>3</v>
@@ -42509,7 +42445,7 @@
     </row>
     <row r="3262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3262" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="B3262">
         <v>3</v>
@@ -42517,7 +42453,7 @@
     </row>
     <row r="3263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3263" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="B3263">
         <v>3</v>
@@ -42525,7 +42461,7 @@
     </row>
     <row r="3264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3264" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="B3264">
         <v>3</v>
@@ -42533,7 +42469,7 @@
     </row>
     <row r="3265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3265" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="B3265">
         <v>3</v>
@@ -42541,7 +42477,7 @@
     </row>
     <row r="3266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3266" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="B3266">
         <v>3</v>
@@ -42549,7 +42485,7 @@
     </row>
     <row r="3267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3267" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="B3267">
         <v>3</v>
@@ -42557,7 +42493,7 @@
     </row>
     <row r="3268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3268" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="B3268">
         <v>3</v>
@@ -42565,7 +42501,7 @@
     </row>
     <row r="3269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3269" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="B3269">
         <v>3</v>
@@ -43005,7 +42941,7 @@
     </row>
     <row r="3324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3324" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B3324">
         <v>3</v>
@@ -43013,7 +42949,7 @@
     </row>
     <row r="3325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3325" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="B3325">
         <v>3</v>
@@ -43021,7 +42957,7 @@
     </row>
     <row r="3326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3326" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="B3326">
         <v>3</v>
@@ -43029,7 +42965,7 @@
     </row>
     <row r="3327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3327" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="B3327">
         <v>3</v>
@@ -43037,7 +42973,7 @@
     </row>
     <row r="3328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3328" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="B3328">
         <v>3</v>
@@ -43045,7 +42981,7 @@
     </row>
     <row r="3329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3329" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="B3329">
         <v>3</v>
@@ -43053,7 +42989,7 @@
     </row>
     <row r="3330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3330" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="B3330">
         <v>3</v>
@@ -43061,7 +42997,7 @@
     </row>
     <row r="3331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3331" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="B3331">
         <v>3</v>
@@ -43069,7 +43005,7 @@
     </row>
     <row r="3332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3332" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="B3332">
         <v>3</v>
@@ -43077,7 +43013,7 @@
     </row>
     <row r="3333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3333" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="B3333">
         <v>3</v>
@@ -43085,7 +43021,7 @@
     </row>
     <row r="3334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3334" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="B3334">
         <v>3</v>
@@ -43093,7 +43029,7 @@
     </row>
     <row r="3335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3335" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="B3335">
         <v>3</v>
@@ -43101,7 +43037,7 @@
     </row>
     <row r="3336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3336" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="B3336">
         <v>3</v>
@@ -43141,7 +43077,7 @@
     </row>
     <row r="3341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3341" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="B3341">
         <v>3</v>
@@ -43149,7 +43085,7 @@
     </row>
     <row r="3342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3342" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="B3342">
         <v>3</v>
@@ -43157,7 +43093,7 @@
     </row>
     <row r="3343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3343" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B3343">
         <v>3</v>
@@ -43165,7 +43101,7 @@
     </row>
     <row r="3344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3344" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="B3344">
         <v>3</v>
@@ -43173,7 +43109,7 @@
     </row>
     <row r="3345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3345" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="B3345">
         <v>3</v>
@@ -43181,7 +43117,7 @@
     </row>
     <row r="3346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3346" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="B3346">
         <v>3</v>
@@ -43189,7 +43125,7 @@
     </row>
     <row r="3347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3347" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="B3347">
         <v>3</v>
@@ -43197,7 +43133,7 @@
     </row>
     <row r="3348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3348" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="B3348">
         <v>3</v>
@@ -43205,7 +43141,7 @@
     </row>
     <row r="3349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3349" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="B3349">
         <v>3</v>
@@ -43213,7 +43149,7 @@
     </row>
     <row r="3350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3350" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="B3350">
         <v>3</v>
@@ -43221,7 +43157,7 @@
     </row>
     <row r="3351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3351" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="B3351">
         <v>3</v>
@@ -43229,7 +43165,7 @@
     </row>
     <row r="3352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3352" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="B3352">
         <v>3</v>
@@ -43237,7 +43173,7 @@
     </row>
     <row r="3353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3353" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="B3353">
         <v>3</v>
@@ -43349,7 +43285,7 @@
     </row>
     <row r="3367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3367" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="B3367">
         <v>3</v>
@@ -43357,7 +43293,7 @@
     </row>
     <row r="3368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3368" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="B3368">
         <v>3</v>
@@ -43365,7 +43301,7 @@
     </row>
     <row r="3369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3369" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="B3369">
         <v>3</v>
@@ -43373,7 +43309,7 @@
     </row>
     <row r="3370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3370" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="B3370">
         <v>3</v>
@@ -43381,7 +43317,7 @@
     </row>
     <row r="3371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3371" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="B3371">
         <v>3</v>
@@ -43389,7 +43325,7 @@
     </row>
     <row r="3372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3372" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="B3372">
         <v>3</v>
@@ -43397,7 +43333,7 @@
     </row>
     <row r="3373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3373" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="B3373">
         <v>3</v>
@@ -43405,7 +43341,7 @@
     </row>
     <row r="3374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3374" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="B3374">
         <v>3</v>
@@ -43413,7 +43349,7 @@
     </row>
     <row r="3375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3375" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="B3375">
         <v>3</v>
@@ -43421,7 +43357,7 @@
     </row>
     <row r="3376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3376" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="B3376">
         <v>3</v>
@@ -43429,7 +43365,7 @@
     </row>
     <row r="3377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3377" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="B3377">
         <v>3</v>
@@ -43437,7 +43373,7 @@
     </row>
     <row r="3378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3378" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="B3378">
         <v>3</v>
@@ -43445,7 +43381,7 @@
     </row>
     <row r="3379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3379" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="B3379">
         <v>3</v>
@@ -43453,7 +43389,7 @@
     </row>
     <row r="3380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3380" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="B3380">
         <v>3</v>
@@ -43709,7 +43645,7 @@
     </row>
     <row r="3412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3412" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="B3412">
         <v>3</v>
@@ -43717,7 +43653,7 @@
     </row>
     <row r="3413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3413" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="B3413">
         <v>3</v>
@@ -43725,7 +43661,7 @@
     </row>
     <row r="3414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3414" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="B3414">
         <v>3</v>
@@ -43733,7 +43669,7 @@
     </row>
     <row r="3415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3415" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="B3415">
         <v>3</v>
@@ -43741,7 +43677,7 @@
     </row>
     <row r="3416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3416" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="B3416">
         <v>3</v>
@@ -43749,7 +43685,7 @@
     </row>
     <row r="3417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3417" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="B3417">
         <v>3</v>
@@ -43757,7 +43693,7 @@
     </row>
     <row r="3418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3418" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="B3418">
         <v>3</v>
@@ -43765,7 +43701,7 @@
     </row>
     <row r="3419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3419" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="B3419">
         <v>3</v>
@@ -43773,7 +43709,7 @@
     </row>
     <row r="3420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3420" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="B3420">
         <v>3</v>
@@ -43781,7 +43717,7 @@
     </row>
     <row r="3421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3421" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="B3421">
         <v>3</v>
@@ -43789,7 +43725,7 @@
     </row>
     <row r="3422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3422" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="B3422">
         <v>3</v>
@@ -43797,7 +43733,7 @@
     </row>
     <row r="3423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3423" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="B3423">
         <v>3</v>
@@ -43805,7 +43741,7 @@
     </row>
     <row r="3424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3424" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="B3424">
         <v>3</v>
@@ -43813,7 +43749,7 @@
     </row>
     <row r="3425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3425" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="B3425">
         <v>3</v>
@@ -43821,7 +43757,7 @@
     </row>
     <row r="3426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3426" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="B3426">
         <v>3</v>
@@ -44061,7 +43997,7 @@
     </row>
     <row r="3456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3456" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="B3456">
         <v>3</v>
@@ -44069,7 +44005,7 @@
     </row>
     <row r="3457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3457" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="B3457">
         <v>3</v>
@@ -44077,7 +44013,7 @@
     </row>
     <row r="3458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3458" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="B3458">
         <v>3</v>
@@ -44085,7 +44021,7 @@
     </row>
     <row r="3459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3459" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="B3459">
         <v>3</v>
@@ -44093,7 +44029,7 @@
     </row>
     <row r="3460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3460" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="B3460">
         <v>3</v>
@@ -44101,7 +44037,7 @@
     </row>
     <row r="3461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3461" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="B3461">
         <v>3</v>
@@ -44109,7 +44045,7 @@
     </row>
     <row r="3462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3462" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="B3462">
         <v>3</v>
@@ -44117,7 +44053,7 @@
     </row>
     <row r="3463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3463" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="B3463">
         <v>3</v>
@@ -44125,7 +44061,7 @@
     </row>
     <row r="3464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3464" t="s">
-        <v>3406</v>
+        <v>3404</v>
       </c>
       <c r="B3464">
         <v>3</v>
@@ -44133,7 +44069,7 @@
     </row>
     <row r="3465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3465" t="s">
-        <v>3407</v>
+        <v>3405</v>
       </c>
       <c r="B3465">
         <v>3</v>
@@ -44141,7 +44077,7 @@
     </row>
     <row r="3466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3466" t="s">
-        <v>3408</v>
+        <v>3406</v>
       </c>
       <c r="B3466">
         <v>3</v>
@@ -44149,7 +44085,7 @@
     </row>
     <row r="3467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3467" t="s">
-        <v>3409</v>
+        <v>3407</v>
       </c>
       <c r="B3467">
         <v>3</v>
@@ -44157,7 +44093,7 @@
     </row>
     <row r="3468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3468" t="s">
-        <v>3410</v>
+        <v>3408</v>
       </c>
       <c r="B3468">
         <v>3</v>
@@ -44165,7 +44101,7 @@
     </row>
     <row r="3469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3469" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
       <c r="B3469">
         <v>3</v>
@@ -44173,7 +44109,7 @@
     </row>
     <row r="3470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3470" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
       <c r="B3470">
         <v>3</v>
@@ -44181,7 +44117,7 @@
     </row>
     <row r="3471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3471" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B3471">
         <v>3</v>
@@ -44189,7 +44125,7 @@
     </row>
     <row r="3472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3472" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="B3472">
         <v>3</v>
@@ -44197,7 +44133,7 @@
     </row>
     <row r="3473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3473" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="B3473">
         <v>3</v>
@@ -44205,7 +44141,7 @@
     </row>
     <row r="3474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3474" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="B3474">
         <v>3</v>
@@ -44213,7 +44149,7 @@
     </row>
     <row r="3475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3475" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="B3475">
         <v>3</v>
@@ -44221,7 +44157,7 @@
     </row>
     <row r="3476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3476" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
       <c r="B3476">
         <v>3</v>
@@ -44229,7 +44165,7 @@
     </row>
     <row r="3477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3477" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
       <c r="B3477">
         <v>3</v>
@@ -44245,7 +44181,7 @@
     </row>
     <row r="3479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3479" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="B3479">
         <v>3</v>
@@ -44253,7 +44189,7 @@
     </row>
     <row r="3480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3480" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="B3480">
         <v>3</v>
@@ -44261,7 +44197,7 @@
     </row>
     <row r="3481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3481" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="B3481">
         <v>3</v>
@@ -44269,7 +44205,7 @@
     </row>
     <row r="3482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3482" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="B3482">
         <v>3</v>
@@ -44277,7 +44213,7 @@
     </row>
     <row r="3483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3483" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="B3483">
         <v>3</v>
@@ -44285,7 +44221,7 @@
     </row>
     <row r="3484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3484" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="B3484">
         <v>3</v>
@@ -44293,7 +44229,7 @@
     </row>
     <row r="3485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3485" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="B3485">
         <v>3</v>
@@ -44301,7 +44237,7 @@
     </row>
     <row r="3486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3486" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="B3486">
         <v>3</v>
@@ -44309,7 +44245,7 @@
     </row>
     <row r="3487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3487" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="B3487">
         <v>3</v>
@@ -44317,7 +44253,7 @@
     </row>
     <row r="3488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3488" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="B3488">
         <v>3</v>
@@ -44325,7 +44261,7 @@
     </row>
     <row r="3489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3489" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="B3489">
         <v>3</v>
@@ -44333,7 +44269,7 @@
     </row>
     <row r="3490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3490" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="B3490">
         <v>3</v>
@@ -44349,7 +44285,7 @@
     </row>
     <row r="3492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3492" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="B3492">
         <v>3</v>
@@ -44357,7 +44293,7 @@
     </row>
     <row r="3493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3493" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="B3493">
         <v>3</v>
@@ -44365,7 +44301,7 @@
     </row>
     <row r="3494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3494" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="B3494">
         <v>3</v>
@@ -44373,7 +44309,7 @@
     </row>
     <row r="3495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3495" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="B3495">
         <v>3</v>
@@ -44381,7 +44317,7 @@
     </row>
     <row r="3496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3496" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="B3496">
         <v>3</v>
@@ -44389,7 +44325,7 @@
     </row>
     <row r="3497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3497" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="B3497">
         <v>3</v>
@@ -44397,7 +44333,7 @@
     </row>
     <row r="3498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3498" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="B3498">
         <v>3</v>
@@ -44405,7 +44341,7 @@
     </row>
     <row r="3499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3499" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="B3499">
         <v>3</v>
@@ -44413,7 +44349,7 @@
     </row>
     <row r="3500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3500" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="B3500">
         <v>3</v>
@@ -44421,7 +44357,7 @@
     </row>
     <row r="3501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3501" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="B3501">
         <v>3</v>
@@ -44429,7 +44365,7 @@
     </row>
     <row r="3502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3502" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="B3502">
         <v>3</v>
@@ -44437,7 +44373,7 @@
     </row>
     <row r="3503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3503" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="B3503">
         <v>3</v>
@@ -44445,7 +44381,7 @@
     </row>
     <row r="3504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3504" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="B3504">
         <v>3</v>
@@ -44453,7 +44389,7 @@
     </row>
     <row r="3505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3505" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="B3505">
         <v>3</v>
@@ -44461,7 +44397,7 @@
     </row>
     <row r="3506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3506" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="B3506">
         <v>3</v>
@@ -44992,7 +44928,7 @@
         <v>3510</v>
       </c>
       <c r="B3572">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3573" spans="1:2" x14ac:dyDescent="0.3">
@@ -45000,7 +44936,7 @@
         <v>3511</v>
       </c>
       <c r="B3573">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3574" spans="1:2" x14ac:dyDescent="0.3">
@@ -45008,7 +44944,7 @@
         <v>3512</v>
       </c>
       <c r="B3574">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3575" spans="1:2" x14ac:dyDescent="0.3">
@@ -45016,7 +44952,7 @@
         <v>3513</v>
       </c>
       <c r="B3575">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3576" spans="1:2" x14ac:dyDescent="0.3">
@@ -45024,7 +44960,7 @@
         <v>3514</v>
       </c>
       <c r="B3576">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3577" spans="1:2" x14ac:dyDescent="0.3">
@@ -45032,7 +44968,7 @@
         <v>3515</v>
       </c>
       <c r="B3577">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3578" spans="1:2" x14ac:dyDescent="0.3">
@@ -45040,7 +44976,7 @@
         <v>3516</v>
       </c>
       <c r="B3578">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3579" spans="1:2" x14ac:dyDescent="0.3">
@@ -45048,7 +44984,7 @@
         <v>3517</v>
       </c>
       <c r="B3579">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3580" spans="1:2" x14ac:dyDescent="0.3">
@@ -45056,7 +44992,7 @@
         <v>3518</v>
       </c>
       <c r="B3580">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3581" spans="1:2" x14ac:dyDescent="0.3">
@@ -45064,7 +45000,7 @@
         <v>3519</v>
       </c>
       <c r="B3581">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3582" spans="1:2" x14ac:dyDescent="0.3">
@@ -45072,7 +45008,7 @@
         <v>3520</v>
       </c>
       <c r="B3582">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3583" spans="1:2" x14ac:dyDescent="0.3">
@@ -45080,7 +45016,7 @@
         <v>3521</v>
       </c>
       <c r="B3583">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3584" spans="1:2" x14ac:dyDescent="0.3">
@@ -45088,7 +45024,7 @@
         <v>3522</v>
       </c>
       <c r="B3584">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3585" spans="1:2" x14ac:dyDescent="0.3">
@@ -45096,7 +45032,7 @@
         <v>3523</v>
       </c>
       <c r="B3585">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3586" spans="1:2" x14ac:dyDescent="0.3">
@@ -45104,7 +45040,7 @@
         <v>3524</v>
       </c>
       <c r="B3586">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3587" spans="1:2" x14ac:dyDescent="0.3">
@@ -45821,7 +45757,7 @@
     </row>
     <row r="3676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3676" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
       <c r="B3676">
         <v>4</v>
@@ -45829,7 +45765,7 @@
     </row>
     <row r="3677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3677" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="B3677">
         <v>4</v>
@@ -45837,7 +45773,7 @@
     </row>
     <row r="3678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3678" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="B3678">
         <v>4</v>
@@ -45845,7 +45781,7 @@
     </row>
     <row r="3679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3679" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="B3679">
         <v>4</v>
@@ -45853,7 +45789,7 @@
     </row>
     <row r="3680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3680" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="B3680">
         <v>4</v>
@@ -45861,7 +45797,7 @@
     </row>
     <row r="3681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3681" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="B3681">
         <v>4</v>
@@ -45869,7 +45805,7 @@
     </row>
     <row r="3682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3682" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="B3682">
         <v>4</v>
@@ -45877,7 +45813,7 @@
     </row>
     <row r="3683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3683" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="B3683">
         <v>4</v>
@@ -45885,7 +45821,7 @@
     </row>
     <row r="3684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3684" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="B3684">
         <v>4</v>
@@ -45893,7 +45829,7 @@
     </row>
     <row r="3685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3685" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="B3685">
         <v>4</v>
@@ -45901,7 +45837,7 @@
     </row>
     <row r="3686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3686" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="B3686">
         <v>4</v>
@@ -45909,7 +45845,7 @@
     </row>
     <row r="3687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3687" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="B3687">
         <v>4</v>
@@ -45917,7 +45853,7 @@
     </row>
     <row r="3688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3688" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="B3688">
         <v>4</v>
@@ -45925,7 +45861,7 @@
     </row>
     <row r="3689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3689" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="B3689">
         <v>4</v>
@@ -45933,7 +45869,7 @@
     </row>
     <row r="3690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3690" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="B3690">
         <v>4</v>
@@ -45941,7 +45877,7 @@
     </row>
     <row r="3691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3691" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="B3691">
         <v>4</v>
@@ -49253,7 +49189,7 @@
     </row>
     <row r="4105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4105" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
       <c r="B4105">
         <v>4</v>
@@ -49261,7 +49197,7 @@
     </row>
     <row r="4106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4106" t="s">
-        <v>4043</v>
+        <v>4042</v>
       </c>
       <c r="B4106">
         <v>4</v>
@@ -49269,7 +49205,7 @@
     </row>
     <row r="4107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4107" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="B4107">
         <v>4</v>
@@ -49277,7 +49213,7 @@
     </row>
     <row r="4108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4108" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="B4108">
         <v>4</v>
@@ -49285,7 +49221,7 @@
     </row>
     <row r="4109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4109" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="B4109">
         <v>4</v>
@@ -49293,7 +49229,7 @@
     </row>
     <row r="4110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4110" t="s">
-        <v>4047</v>
+        <v>4046</v>
       </c>
       <c r="B4110">
         <v>4</v>
@@ -49301,7 +49237,7 @@
     </row>
     <row r="4111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4111" t="s">
-        <v>4048</v>
+        <v>4047</v>
       </c>
       <c r="B4111">
         <v>4</v>
@@ -49309,7 +49245,7 @@
     </row>
     <row r="4112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4112" t="s">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="B4112">
         <v>4</v>
@@ -49317,7 +49253,7 @@
     </row>
     <row r="4113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4113" t="s">
-        <v>4050</v>
+        <v>4049</v>
       </c>
       <c r="B4113">
         <v>4</v>
@@ -49325,7 +49261,7 @@
     </row>
     <row r="4114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4114" t="s">
-        <v>4051</v>
+        <v>4050</v>
       </c>
       <c r="B4114">
         <v>4</v>
@@ -49333,7 +49269,7 @@
     </row>
     <row r="4115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4115" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="B4115">
         <v>4</v>
@@ -49341,7 +49277,7 @@
     </row>
     <row r="4116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4116" t="s">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="B4116">
         <v>4</v>
@@ -49349,7 +49285,7 @@
     </row>
     <row r="4117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4117" t="s">
-        <v>4054</v>
+        <v>4053</v>
       </c>
       <c r="B4117">
         <v>4</v>
@@ -49357,7 +49293,7 @@
     </row>
     <row r="4118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4118" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="B4118">
         <v>4</v>
@@ -49365,7 +49301,7 @@
     </row>
     <row r="4119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4119" t="s">
-        <v>4056</v>
+        <v>4055</v>
       </c>
       <c r="B4119">
         <v>4</v>
@@ -49373,7 +49309,7 @@
     </row>
     <row r="4120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4120" t="s">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="B4120">
         <v>4</v>
@@ -49509,7 +49445,7 @@
     </row>
     <row r="4137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4137" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="B4137">
         <v>4</v>
@@ -49517,7 +49453,7 @@
     </row>
     <row r="4138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4138" t="s">
-        <v>4074</v>
+        <v>4073</v>
       </c>
       <c r="B4138">
         <v>4</v>
@@ -49525,7 +49461,7 @@
     </row>
     <row r="4139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4139" t="s">
-        <v>4075</v>
+        <v>4074</v>
       </c>
       <c r="B4139">
         <v>4</v>
@@ -49533,7 +49469,7 @@
     </row>
     <row r="4140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4140" t="s">
-        <v>4076</v>
+        <v>4075</v>
       </c>
       <c r="B4140">
         <v>4</v>
@@ -49541,7 +49477,7 @@
     </row>
     <row r="4141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4141" t="s">
-        <v>4077</v>
+        <v>4076</v>
       </c>
       <c r="B4141">
         <v>4</v>
@@ -49549,7 +49485,7 @@
     </row>
     <row r="4142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4142" t="s">
-        <v>4078</v>
+        <v>4077</v>
       </c>
       <c r="B4142">
         <v>4</v>
@@ -49557,7 +49493,7 @@
     </row>
     <row r="4143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4143" t="s">
-        <v>4079</v>
+        <v>4078</v>
       </c>
       <c r="B4143">
         <v>4</v>
@@ -49565,7 +49501,7 @@
     </row>
     <row r="4144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4144" t="s">
-        <v>4080</v>
+        <v>4079</v>
       </c>
       <c r="B4144">
         <v>4</v>
@@ -49573,7 +49509,7 @@
     </row>
     <row r="4145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4145" t="s">
-        <v>4081</v>
+        <v>4080</v>
       </c>
       <c r="B4145">
         <v>4</v>
@@ -49581,7 +49517,7 @@
     </row>
     <row r="4146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4146" t="s">
-        <v>4082</v>
+        <v>4079</v>
       </c>
       <c r="B4146">
         <v>4</v>
@@ -49589,7 +49525,7 @@
     </row>
     <row r="4147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4147" t="s">
-        <v>4083</v>
+        <v>4081</v>
       </c>
       <c r="B4147">
         <v>4</v>
@@ -49597,7 +49533,7 @@
     </row>
     <row r="4148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4148" t="s">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="B4148">
         <v>4</v>
@@ -49605,7 +49541,7 @@
     </row>
     <row r="4149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4149" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="B4149">
         <v>4</v>
@@ -49613,7 +49549,7 @@
     </row>
     <row r="4150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4150" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
       <c r="B4150">
         <v>4</v>
@@ -49621,7 +49557,7 @@
     </row>
     <row r="4151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4151" t="s">
-        <v>4087</v>
+        <v>4085</v>
       </c>
       <c r="B4151">
         <v>4</v>
@@ -49629,7 +49565,7 @@
     </row>
     <row r="4152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4152" t="s">
-        <v>4088</v>
+        <v>4086</v>
       </c>
       <c r="B4152">
         <v>4</v>
@@ -49637,7 +49573,7 @@
     </row>
     <row r="4153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4153" t="s">
-        <v>4088</v>
+        <v>4087</v>
       </c>
       <c r="B4153">
         <v>4</v>
@@ -49645,7 +49581,7 @@
     </row>
     <row r="4154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4154" t="s">
-        <v>4089</v>
+        <v>4088</v>
       </c>
       <c r="B4154">
         <v>4</v>
@@ -49653,7 +49589,7 @@
     </row>
     <row r="4155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4155" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
       <c r="B4155">
         <v>4</v>
@@ -49661,7 +49597,7 @@
     </row>
     <row r="4156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4156" t="s">
-        <v>4091</v>
+        <v>4090</v>
       </c>
       <c r="B4156">
         <v>4</v>
@@ -49669,7 +49605,7 @@
     </row>
     <row r="4157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4157" t="s">
-        <v>4092</v>
+        <v>4091</v>
       </c>
       <c r="B4157">
         <v>4</v>
@@ -49677,7 +49613,7 @@
     </row>
     <row r="4158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4158" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
       <c r="B4158">
         <v>4</v>
@@ -49685,7 +49621,7 @@
     </row>
     <row r="4159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4159" t="s">
-        <v>4094</v>
+        <v>4093</v>
       </c>
       <c r="B4159">
         <v>4</v>
@@ -49693,7 +49629,7 @@
     </row>
     <row r="4160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4160" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
       <c r="B4160">
         <v>4</v>
@@ -49701,7 +49637,7 @@
     </row>
     <row r="4161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4161" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
       <c r="B4161">
         <v>4</v>
@@ -49709,7 +49645,7 @@
     </row>
     <row r="4162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4162" t="s">
-        <v>4095</v>
+        <v>4096</v>
       </c>
       <c r="B4162">
         <v>4</v>
@@ -49752,7 +49688,7 @@
         <v>4101</v>
       </c>
       <c r="B4167">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4168" spans="1:2" x14ac:dyDescent="0.3">
@@ -49760,7 +49696,7 @@
         <v>4102</v>
       </c>
       <c r="B4168">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4169" spans="1:2" x14ac:dyDescent="0.3">
@@ -49768,7 +49704,7 @@
         <v>4103</v>
       </c>
       <c r="B4169">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4170" spans="1:2" x14ac:dyDescent="0.3">
@@ -49776,7 +49712,7 @@
         <v>4104</v>
       </c>
       <c r="B4170">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4171" spans="1:2" x14ac:dyDescent="0.3">
@@ -49784,7 +49720,7 @@
         <v>4105</v>
       </c>
       <c r="B4171">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4172" spans="1:2" x14ac:dyDescent="0.3">
@@ -49792,7 +49728,7 @@
         <v>4106</v>
       </c>
       <c r="B4172">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4173" spans="1:2" x14ac:dyDescent="0.3">
@@ -49800,7 +49736,7 @@
         <v>4107</v>
       </c>
       <c r="B4173">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4174" spans="1:2" x14ac:dyDescent="0.3">
@@ -49808,7 +49744,7 @@
         <v>4108</v>
       </c>
       <c r="B4174">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4175" spans="1:2" x14ac:dyDescent="0.3">
@@ -49816,7 +49752,7 @@
         <v>4109</v>
       </c>
       <c r="B4175">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4176" spans="1:2" x14ac:dyDescent="0.3">
@@ -49824,7 +49760,7 @@
         <v>4110</v>
       </c>
       <c r="B4176">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4177" spans="1:2" x14ac:dyDescent="0.3">
@@ -49832,7 +49768,7 @@
         <v>4111</v>
       </c>
       <c r="B4177">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4178" spans="1:2" x14ac:dyDescent="0.3">
@@ -49840,7 +49776,7 @@
         <v>4112</v>
       </c>
       <c r="B4178">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4179" spans="1:2" x14ac:dyDescent="0.3">
@@ -49848,7 +49784,7 @@
         <v>4113</v>
       </c>
       <c r="B4179">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4180" spans="1:2" x14ac:dyDescent="0.3">
@@ -49856,7 +49792,7 @@
         <v>4114</v>
       </c>
       <c r="B4180">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4181" spans="1:2" x14ac:dyDescent="0.3">
@@ -49864,7 +49800,7 @@
         <v>4115</v>
       </c>
       <c r="B4181">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4182" spans="1:2" x14ac:dyDescent="0.3">
@@ -49872,7 +49808,7 @@
         <v>4116</v>
       </c>
       <c r="B4182">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4183" spans="1:2" x14ac:dyDescent="0.3">
@@ -49880,7 +49816,7 @@
         <v>4117</v>
       </c>
       <c r="B4183">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4184" spans="1:2" x14ac:dyDescent="0.3">
@@ -50349,7 +50285,7 @@
     </row>
     <row r="4242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4242" t="s">
-        <v>4176</v>
+        <v>4174</v>
       </c>
       <c r="B4242">
         <v>5</v>
@@ -50357,7 +50293,7 @@
     </row>
     <row r="4243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4243" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="B4243">
         <v>5</v>
@@ -50365,7 +50301,7 @@
     </row>
     <row r="4244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4244" t="s">
-        <v>4178</v>
+        <v>4177</v>
       </c>
       <c r="B4244">
         <v>5</v>
@@ -50373,7 +50309,7 @@
     </row>
     <row r="4245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4245" t="s">
-        <v>4179</v>
+        <v>4178</v>
       </c>
       <c r="B4245">
         <v>5</v>
@@ -50381,7 +50317,7 @@
     </row>
     <row r="4246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4246" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="B4246">
         <v>5</v>
@@ -50389,7 +50325,7 @@
     </row>
     <row r="4247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4247" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="B4247">
         <v>5</v>
@@ -50397,7 +50333,7 @@
     </row>
     <row r="4248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4248" t="s">
-        <v>4182</v>
+        <v>4181</v>
       </c>
       <c r="B4248">
         <v>5</v>
@@ -50405,7 +50341,7 @@
     </row>
     <row r="4249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4249" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="B4249">
         <v>5</v>
@@ -50413,7 +50349,7 @@
     </row>
     <row r="4250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4250" t="s">
-        <v>4184</v>
+        <v>4183</v>
       </c>
       <c r="B4250">
         <v>5</v>
@@ -50421,7 +50357,7 @@
     </row>
     <row r="4251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4251" t="s">
-        <v>4185</v>
+        <v>4184</v>
       </c>
       <c r="B4251">
         <v>5</v>
@@ -50429,7 +50365,7 @@
     </row>
     <row r="4252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4252" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="B4252">
         <v>5</v>
@@ -50437,7 +50373,7 @@
     </row>
     <row r="4253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4253" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="B4253">
         <v>5</v>
@@ -50445,7 +50381,7 @@
     </row>
     <row r="4254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4254" t="s">
-        <v>4188</v>
+        <v>4187</v>
       </c>
       <c r="B4254">
         <v>5</v>
@@ -50453,7 +50389,7 @@
     </row>
     <row r="4255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4255" t="s">
-        <v>4189</v>
+        <v>4188</v>
       </c>
       <c r="B4255">
         <v>5</v>
@@ -50461,7 +50397,7 @@
     </row>
     <row r="4256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4256" t="s">
-        <v>4190</v>
+        <v>4189</v>
       </c>
       <c r="B4256">
         <v>5</v>
@@ -50469,7 +50405,7 @@
     </row>
     <row r="4257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4257" t="s">
-        <v>4191</v>
+        <v>4190</v>
       </c>
       <c r="B4257">
         <v>5</v>
@@ -50477,7 +50413,7 @@
     </row>
     <row r="4258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4258" t="s">
-        <v>4192</v>
+        <v>4191</v>
       </c>
       <c r="B4258">
         <v>5</v>
@@ -50485,7 +50421,7 @@
     </row>
     <row r="4259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4259" t="s">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="B4259">
         <v>5</v>
@@ -50493,7 +50429,7 @@
     </row>
     <row r="4260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4260" t="s">
-        <v>4194</v>
+        <v>4193</v>
       </c>
       <c r="B4260">
         <v>5</v>
@@ -50501,7 +50437,7 @@
     </row>
     <row r="4261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4261" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="B4261">
         <v>5</v>
@@ -50661,7 +50597,7 @@
     </row>
     <row r="4281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4281" t="s">
-        <v>4214</v>
+        <v>4212</v>
       </c>
       <c r="B4281">
         <v>5</v>
@@ -50669,7 +50605,7 @@
     </row>
     <row r="4282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4282" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="B4282">
         <v>5</v>
@@ -50677,7 +50613,7 @@
     </row>
     <row r="4283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4283" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
       <c r="B4283">
         <v>5</v>
@@ -50685,7 +50621,7 @@
     </row>
     <row r="4284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4284" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="B4284">
         <v>5</v>
@@ -50693,7 +50629,7 @@
     </row>
     <row r="4285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4285" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
       <c r="B4285">
         <v>5</v>
@@ -50701,7 +50637,7 @@
     </row>
     <row r="4286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4286" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
       <c r="B4286">
         <v>5</v>
@@ -50709,7 +50645,7 @@
     </row>
     <row r="4287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4287" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
       <c r="B4287">
         <v>5</v>
@@ -50717,7 +50653,7 @@
     </row>
     <row r="4288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4288" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="B4288">
         <v>5</v>
@@ -50725,7 +50661,7 @@
     </row>
     <row r="4289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4289" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="B4289">
         <v>5</v>
@@ -50733,7 +50669,7 @@
     </row>
     <row r="4290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4290" t="s">
-        <v>4223</v>
+        <v>4221</v>
       </c>
       <c r="B4290">
         <v>5</v>
@@ -50741,7 +50677,7 @@
     </row>
     <row r="4291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4291" t="s">
-        <v>4224</v>
+        <v>4222</v>
       </c>
       <c r="B4291">
         <v>5</v>
@@ -50749,7 +50685,7 @@
     </row>
     <row r="4292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4292" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="B4292">
         <v>5</v>
@@ -50757,7 +50693,7 @@
     </row>
     <row r="4293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4293" t="s">
-        <v>4226</v>
+        <v>4224</v>
       </c>
       <c r="B4293">
         <v>5</v>
@@ -50765,7 +50701,7 @@
     </row>
     <row r="4294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4294" t="s">
-        <v>4227</v>
+        <v>4225</v>
       </c>
       <c r="B4294">
         <v>5</v>
@@ -50773,7 +50709,7 @@
     </row>
     <row r="4295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4295" t="s">
-        <v>4228</v>
+        <v>4226</v>
       </c>
       <c r="B4295">
         <v>5</v>
@@ -50781,7 +50717,7 @@
     </row>
     <row r="4296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4296" t="s">
-        <v>4229</v>
+        <v>4227</v>
       </c>
       <c r="B4296">
         <v>5</v>
@@ -50789,7 +50725,7 @@
     </row>
     <row r="4297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4297" t="s">
-        <v>4230</v>
+        <v>4228</v>
       </c>
       <c r="B4297">
         <v>5</v>
@@ -50797,7 +50733,7 @@
     </row>
     <row r="4298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4298" t="s">
-        <v>4231</v>
+        <v>4229</v>
       </c>
       <c r="B4298">
         <v>5</v>
@@ -50805,7 +50741,7 @@
     </row>
     <row r="4299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4299" t="s">
-        <v>4232</v>
+        <v>4230</v>
       </c>
       <c r="B4299">
         <v>5</v>
@@ -50821,7 +50757,7 @@
     </row>
     <row r="4301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4301" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
       <c r="B4301">
         <v>5</v>
@@ -50829,7 +50765,7 @@
     </row>
     <row r="4302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4302" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
       <c r="B4302">
         <v>5</v>
@@ -50837,7 +50773,7 @@
     </row>
     <row r="4303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4303" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
       <c r="B4303">
         <v>5</v>
@@ -50845,7 +50781,7 @@
     </row>
     <row r="4304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4304" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
       <c r="B4304">
         <v>5</v>
@@ -50853,7 +50789,7 @@
     </row>
     <row r="4305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4305" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="B4305">
         <v>5</v>
@@ -50861,7 +50797,7 @@
     </row>
     <row r="4306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4306" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="B4306">
         <v>5</v>
@@ -50869,7 +50805,7 @@
     </row>
     <row r="4307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4307" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="B4307">
         <v>5</v>
@@ -50877,7 +50813,7 @@
     </row>
     <row r="4308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4308" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
       <c r="B4308">
         <v>5</v>
@@ -50973,7 +50909,7 @@
     </row>
     <row r="4320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4320" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="B4320">
         <v>5</v>
@@ -50981,7 +50917,7 @@
     </row>
     <row r="4321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4321" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="B4321">
         <v>5</v>
@@ -50989,7 +50925,7 @@
     </row>
     <row r="4322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4322" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="B4322">
         <v>5</v>
@@ -50997,7 +50933,7 @@
     </row>
     <row r="4323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4323" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
       <c r="B4323">
         <v>5</v>
@@ -51005,7 +50941,7 @@
     </row>
     <row r="4324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4324" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="B4324">
         <v>5</v>
@@ -51013,7 +50949,7 @@
     </row>
     <row r="4325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4325" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="B4325">
         <v>5</v>
@@ -51021,7 +50957,7 @@
     </row>
     <row r="4326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4326" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="B4326">
         <v>5</v>
@@ -51029,7 +50965,7 @@
     </row>
     <row r="4327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4327" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="B4327">
         <v>5</v>
@@ -51037,7 +50973,7 @@
     </row>
     <row r="4328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4328" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
       <c r="B4328">
         <v>5</v>
@@ -51045,7 +50981,7 @@
     </row>
     <row r="4329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4329" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="B4329">
         <v>5</v>
@@ -51053,7 +50989,7 @@
     </row>
     <row r="4330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4330" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="B4330">
         <v>5</v>
@@ -51061,7 +50997,7 @@
     </row>
     <row r="4331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4331" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="B4331">
         <v>5</v>
@@ -51069,7 +51005,7 @@
     </row>
     <row r="4332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4332" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="B4332">
         <v>5</v>
@@ -51077,7 +51013,7 @@
     </row>
     <row r="4333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4333" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="B4333">
         <v>5</v>
@@ -51085,7 +51021,7 @@
     </row>
     <row r="4334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4334" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="B4334">
         <v>5</v>
@@ -51093,7 +51029,7 @@
     </row>
     <row r="4335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4335" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="B4335">
         <v>5</v>
@@ -51101,7 +51037,7 @@
     </row>
     <row r="4336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4336" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="B4336">
         <v>5</v>
@@ -51109,7 +51045,7 @@
     </row>
     <row r="4337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4337" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="B4337">
         <v>5</v>
@@ -51117,7 +51053,7 @@
     </row>
     <row r="4338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4338" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="B4338">
         <v>5</v>
@@ -51229,7 +51165,7 @@
     </row>
     <row r="4352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4352" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
       <c r="B4352">
         <v>5</v>
@@ -51237,7 +51173,7 @@
     </row>
     <row r="4353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4353" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="B4353">
         <v>5</v>
@@ -51245,7 +51181,7 @@
     </row>
     <row r="4354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4354" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="B4354">
         <v>5</v>
@@ -51253,7 +51189,7 @@
     </row>
     <row r="4355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4355" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="B4355">
         <v>5</v>
@@ -51261,7 +51197,7 @@
     </row>
     <row r="4356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4356" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="B4356">
         <v>5</v>
@@ -51269,7 +51205,7 @@
     </row>
     <row r="4357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4357" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="B4357">
         <v>5</v>
@@ -51277,7 +51213,7 @@
     </row>
     <row r="4358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4358" t="s">
-        <v>4288</v>
+        <v>4286</v>
       </c>
       <c r="B4358">
         <v>5</v>
@@ -51285,7 +51221,7 @@
     </row>
     <row r="4359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4359" t="s">
-        <v>4289</v>
+        <v>4287</v>
       </c>
       <c r="B4359">
         <v>5</v>
@@ -51293,7 +51229,7 @@
     </row>
     <row r="4360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4360" t="s">
-        <v>4290</v>
+        <v>4288</v>
       </c>
       <c r="B4360">
         <v>5</v>
@@ -51301,7 +51237,7 @@
     </row>
     <row r="4361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4361" t="s">
-        <v>4291</v>
+        <v>4289</v>
       </c>
       <c r="B4361">
         <v>5</v>
@@ -51309,7 +51245,7 @@
     </row>
     <row r="4362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4362" t="s">
-        <v>4292</v>
+        <v>4290</v>
       </c>
       <c r="B4362">
         <v>5</v>
@@ -51317,7 +51253,7 @@
     </row>
     <row r="4363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4363" t="s">
-        <v>4293</v>
+        <v>4291</v>
       </c>
       <c r="B4363">
         <v>5</v>
@@ -51325,7 +51261,7 @@
     </row>
     <row r="4364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4364" t="s">
-        <v>4294</v>
+        <v>4292</v>
       </c>
       <c r="B4364">
         <v>5</v>
@@ -51333,7 +51269,7 @@
     </row>
     <row r="4365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4365" t="s">
-        <v>4295</v>
+        <v>4293</v>
       </c>
       <c r="B4365">
         <v>5</v>
@@ -51341,7 +51277,7 @@
     </row>
     <row r="4366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4366" t="s">
-        <v>4296</v>
+        <v>4294</v>
       </c>
       <c r="B4366">
         <v>5</v>
@@ -51349,7 +51285,7 @@
     </row>
     <row r="4367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4367" t="s">
-        <v>4297</v>
+        <v>4295</v>
       </c>
       <c r="B4367">
         <v>5</v>
@@ -51357,7 +51293,7 @@
     </row>
     <row r="4368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4368" t="s">
-        <v>4298</v>
+        <v>4294</v>
       </c>
       <c r="B4368">
         <v>5</v>
@@ -51365,7 +51301,7 @@
     </row>
     <row r="4369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4369" t="s">
-        <v>4299</v>
+        <v>4296</v>
       </c>
       <c r="B4369">
         <v>5</v>
@@ -51373,7 +51309,7 @@
     </row>
     <row r="4370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4370" t="s">
-        <v>4300</v>
+        <v>4297</v>
       </c>
       <c r="B4370">
         <v>5</v>
@@ -51381,7 +51317,7 @@
     </row>
     <row r="4371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4371" t="s">
-        <v>4300</v>
+        <v>4298</v>
       </c>
       <c r="B4371">
         <v>5</v>
@@ -51389,7 +51325,7 @@
     </row>
     <row r="4372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4372" t="s">
-        <v>4301</v>
+        <v>4299</v>
       </c>
       <c r="B4372">
         <v>5</v>
@@ -51397,7 +51333,7 @@
     </row>
     <row r="4373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4373" t="s">
-        <v>4302</v>
+        <v>4300</v>
       </c>
       <c r="B4373">
         <v>5</v>
@@ -51405,7 +51341,7 @@
     </row>
     <row r="4374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4374" t="s">
-        <v>4303</v>
+        <v>4301</v>
       </c>
       <c r="B4374">
         <v>5</v>
@@ -51413,7 +51349,7 @@
     </row>
     <row r="4375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4375" t="s">
-        <v>4304</v>
+        <v>4302</v>
       </c>
       <c r="B4375">
         <v>5</v>
@@ -51421,7 +51357,7 @@
     </row>
     <row r="4376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4376" t="s">
-        <v>4305</v>
+        <v>4303</v>
       </c>
       <c r="B4376">
         <v>5</v>
@@ -51429,7 +51365,7 @@
     </row>
     <row r="4377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4377" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="B4377">
         <v>5</v>
@@ -51437,7 +51373,7 @@
     </row>
     <row r="4378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4378" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
       <c r="B4378">
         <v>5</v>
@@ -51445,7 +51381,7 @@
     </row>
     <row r="4379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4379" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
       <c r="B4379">
         <v>5</v>
@@ -51453,7 +51389,7 @@
     </row>
     <row r="4380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4380" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="B4380">
         <v>5</v>
@@ -51461,7 +51397,7 @@
     </row>
     <row r="4381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4381" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="B4381">
         <v>5</v>
@@ -51469,7 +51405,7 @@
     </row>
     <row r="4382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4382" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
       <c r="B4382">
         <v>5</v>
@@ -51477,7 +51413,7 @@
     </row>
     <row r="4383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4383" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="B4383">
         <v>5</v>
@@ -51485,7 +51421,7 @@
     </row>
     <row r="4384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4384" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
       <c r="B4384">
         <v>5</v>
@@ -51493,7 +51429,7 @@
     </row>
     <row r="4385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4385" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="B4385">
         <v>5</v>
@@ -51501,7 +51437,7 @@
     </row>
     <row r="4386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4386" t="s">
-        <v>4314</v>
+        <v>4312</v>
       </c>
       <c r="B4386">
         <v>5</v>
@@ -51517,7 +51453,7 @@
     </row>
     <row r="4388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4388" t="s">
-        <v>4315</v>
+        <v>4314</v>
       </c>
       <c r="B4388">
         <v>5</v>
@@ -51525,7 +51461,7 @@
     </row>
     <row r="4389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4389" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
       <c r="B4389">
         <v>5</v>
@@ -51533,7 +51469,7 @@
     </row>
     <row r="4390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4390" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
       <c r="B4390">
         <v>5</v>
@@ -51541,7 +51477,7 @@
     </row>
     <row r="4391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4391" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="B4391">
         <v>5</v>
@@ -51549,7 +51485,7 @@
     </row>
     <row r="4392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4392" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="B4392">
         <v>5</v>
@@ -51557,7 +51493,7 @@
     </row>
     <row r="4393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4393" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
       <c r="B4393">
         <v>5</v>
@@ -51565,7 +51501,7 @@
     </row>
     <row r="4394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4394" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
       <c r="B4394">
         <v>5</v>
@@ -51573,7 +51509,7 @@
     </row>
     <row r="4395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4395" t="s">
-        <v>4322</v>
+        <v>4321</v>
       </c>
       <c r="B4395">
         <v>5</v>
@@ -51581,7 +51517,7 @@
     </row>
     <row r="4396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4396" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="B4396">
         <v>5</v>
@@ -51589,7 +51525,7 @@
     </row>
     <row r="4397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4397" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
       <c r="B4397">
         <v>5</v>
@@ -51597,7 +51533,7 @@
     </row>
     <row r="4398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4398" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
       <c r="B4398">
         <v>5</v>
@@ -51605,7 +51541,7 @@
     </row>
     <row r="4399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4399" t="s">
-        <v>4326</v>
+        <v>4325</v>
       </c>
       <c r="B4399">
         <v>5</v>
@@ -51613,7 +51549,7 @@
     </row>
     <row r="4400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4400" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
       <c r="B4400">
         <v>5</v>
@@ -51621,7 +51557,7 @@
     </row>
     <row r="4401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4401" t="s">
-        <v>4328</v>
+        <v>4327</v>
       </c>
       <c r="B4401">
         <v>5</v>
@@ -51629,7 +51565,7 @@
     </row>
     <row r="4402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4402" t="s">
-        <v>4329</v>
+        <v>4328</v>
       </c>
       <c r="B4402">
         <v>5</v>
@@ -51637,7 +51573,7 @@
     </row>
     <row r="4403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4403" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
       <c r="B4403">
         <v>5</v>
@@ -51645,7 +51581,7 @@
     </row>
     <row r="4404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4404" t="s">
-        <v>4331</v>
+        <v>4330</v>
       </c>
       <c r="B4404">
         <v>5</v>
@@ -52765,7 +52701,7 @@
     </row>
     <row r="4544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4544" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="B4544">
         <v>5</v>
@@ -52773,7 +52709,7 @@
     </row>
     <row r="4545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4545" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="B4545">
         <v>5</v>
@@ -52781,7 +52717,7 @@
     </row>
     <row r="4546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4546" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
       <c r="B4546">
         <v>5</v>
@@ -52789,7 +52725,7 @@
     </row>
     <row r="4547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4547" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="B4547">
         <v>5</v>
@@ -52797,7 +52733,7 @@
     </row>
     <row r="4548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4548" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="B4548">
         <v>5</v>
@@ -52805,7 +52741,7 @@
     </row>
     <row r="4549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4549" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="B4549">
         <v>5</v>
@@ -52813,7 +52749,7 @@
     </row>
     <row r="4550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4550" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
       <c r="B4550">
         <v>5</v>
@@ -52821,7 +52757,7 @@
     </row>
     <row r="4551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4551" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
       <c r="B4551">
         <v>5</v>
@@ -52829,7 +52765,7 @@
     </row>
     <row r="4552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4552" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
       <c r="B4552">
         <v>5</v>
@@ -52837,7 +52773,7 @@
     </row>
     <row r="4553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4553" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B4553">
         <v>5</v>
@@ -52845,7 +52781,7 @@
     </row>
     <row r="4554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4554" t="s">
-        <v>4480</v>
+        <v>4479</v>
       </c>
       <c r="B4554">
         <v>5</v>
@@ -52853,7 +52789,7 @@
     </row>
     <row r="4555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4555" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
       <c r="B4555">
         <v>5</v>
@@ -52861,7 +52797,7 @@
     </row>
     <row r="4556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4556" t="s">
-        <v>4482</v>
+        <v>4481</v>
       </c>
       <c r="B4556">
         <v>5</v>
@@ -52869,7 +52805,7 @@
     </row>
     <row r="4557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4557" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
       <c r="B4557">
         <v>5</v>
@@ -52877,7 +52813,7 @@
     </row>
     <row r="4558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4558" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
       <c r="B4558">
         <v>5</v>
@@ -52885,7 +52821,7 @@
     </row>
     <row r="4559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4559" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
       <c r="B4559">
         <v>5</v>
@@ -52893,7 +52829,7 @@
     </row>
     <row r="4560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4560" t="s">
-        <v>4486</v>
+        <v>4485</v>
       </c>
       <c r="B4560">
         <v>5</v>
@@ -52901,7 +52837,7 @@
     </row>
     <row r="4561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4561" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
       <c r="B4561">
         <v>5</v>
@@ -52909,7 +52845,7 @@
     </row>
     <row r="4562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4562" t="s">
-        <v>4488</v>
+        <v>4487</v>
       </c>
       <c r="B4562">
         <v>5</v>
@@ -53277,7 +53213,7 @@
     </row>
     <row r="4608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4608" t="s">
-        <v>4533</v>
+        <v>4532</v>
       </c>
       <c r="B4608">
         <v>5</v>
@@ -53285,7 +53221,7 @@
     </row>
     <row r="4609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4609" t="s">
-        <v>4534</v>
+        <v>4533</v>
       </c>
       <c r="B4609">
         <v>5</v>
@@ -53293,7 +53229,7 @@
     </row>
     <row r="4610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4610" t="s">
-        <v>4535</v>
+        <v>4534</v>
       </c>
       <c r="B4610">
         <v>5</v>
@@ -53301,7 +53237,7 @@
     </row>
     <row r="4611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4611" t="s">
-        <v>4536</v>
+        <v>4535</v>
       </c>
       <c r="B4611">
         <v>5</v>
@@ -53309,7 +53245,7 @@
     </row>
     <row r="4612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4612" t="s">
-        <v>4537</v>
+        <v>4536</v>
       </c>
       <c r="B4612">
         <v>5</v>
@@ -53317,7 +53253,7 @@
     </row>
     <row r="4613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4613" t="s">
-        <v>4538</v>
+        <v>4537</v>
       </c>
       <c r="B4613">
         <v>5</v>
@@ -53325,7 +53261,7 @@
     </row>
     <row r="4614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4614" t="s">
-        <v>4539</v>
+        <v>4538</v>
       </c>
       <c r="B4614">
         <v>5</v>
@@ -53333,7 +53269,7 @@
     </row>
     <row r="4615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4615" t="s">
-        <v>4540</v>
+        <v>4539</v>
       </c>
       <c r="B4615">
         <v>5</v>
@@ -53341,7 +53277,7 @@
     </row>
     <row r="4616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4616" t="s">
-        <v>4541</v>
+        <v>4540</v>
       </c>
       <c r="B4616">
         <v>5</v>
@@ -53349,7 +53285,7 @@
     </row>
     <row r="4617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4617" t="s">
-        <v>4542</v>
+        <v>4541</v>
       </c>
       <c r="B4617">
         <v>5</v>
@@ -53357,7 +53293,7 @@
     </row>
     <row r="4618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4618" t="s">
-        <v>4543</v>
+        <v>4542</v>
       </c>
       <c r="B4618">
         <v>5</v>
@@ -53365,7 +53301,7 @@
     </row>
     <row r="4619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4619" t="s">
-        <v>4544</v>
+        <v>4543</v>
       </c>
       <c r="B4619">
         <v>5</v>
@@ -53373,7 +53309,7 @@
     </row>
     <row r="4620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4620" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
       <c r="B4620">
         <v>5</v>
@@ -53381,7 +53317,7 @@
     </row>
     <row r="4621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4621" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
       <c r="B4621">
         <v>5</v>
@@ -53389,7 +53325,7 @@
     </row>
     <row r="4622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4622" t="s">
-        <v>4547</v>
+        <v>4546</v>
       </c>
       <c r="B4622">
         <v>5</v>
@@ -53397,7 +53333,7 @@
     </row>
     <row r="4623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4623" t="s">
-        <v>4548</v>
+        <v>4547</v>
       </c>
       <c r="B4623">
         <v>5</v>
@@ -53405,7 +53341,7 @@
     </row>
     <row r="4624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4624" t="s">
-        <v>4549</v>
+        <v>4548</v>
       </c>
       <c r="B4624">
         <v>5</v>
@@ -53413,7 +53349,7 @@
     </row>
     <row r="4625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4625" t="s">
-        <v>4550</v>
+        <v>4549</v>
       </c>
       <c r="B4625">
         <v>5</v>
@@ -53421,7 +53357,7 @@
     </row>
     <row r="4626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4626" t="s">
-        <v>4551</v>
+        <v>4550</v>
       </c>
       <c r="B4626">
         <v>5</v>
@@ -53829,7 +53765,7 @@
     </row>
     <row r="4677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4677" t="s">
-        <v>4601</v>
+        <v>4599</v>
       </c>
       <c r="B4677">
         <v>5</v>
@@ -53837,7 +53773,7 @@
     </row>
     <row r="4678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4678" t="s">
-        <v>4602</v>
+        <v>4601</v>
       </c>
       <c r="B4678">
         <v>5</v>
@@ -53845,7 +53781,7 @@
     </row>
     <row r="4679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4679" t="s">
-        <v>4603</v>
+        <v>4602</v>
       </c>
       <c r="B4679">
         <v>5</v>
@@ -53853,7 +53789,7 @@
     </row>
     <row r="4680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4680" t="s">
-        <v>4604</v>
+        <v>4603</v>
       </c>
       <c r="B4680">
         <v>5</v>
@@ -53861,7 +53797,7 @@
     </row>
     <row r="4681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4681" t="s">
-        <v>4605</v>
+        <v>4604</v>
       </c>
       <c r="B4681">
         <v>5</v>
@@ -53869,7 +53805,7 @@
     </row>
     <row r="4682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4682" t="s">
-        <v>4606</v>
+        <v>4605</v>
       </c>
       <c r="B4682">
         <v>5</v>
@@ -53877,7 +53813,7 @@
     </row>
     <row r="4683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4683" t="s">
-        <v>4607</v>
+        <v>4606</v>
       </c>
       <c r="B4683">
         <v>5</v>
@@ -53885,7 +53821,7 @@
     </row>
     <row r="4684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4684" t="s">
-        <v>4608</v>
+        <v>4607</v>
       </c>
       <c r="B4684">
         <v>5</v>
@@ -53893,7 +53829,7 @@
     </row>
     <row r="4685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4685" t="s">
-        <v>4609</v>
+        <v>4608</v>
       </c>
       <c r="B4685">
         <v>5</v>
@@ -53901,7 +53837,7 @@
     </row>
     <row r="4686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4686" t="s">
-        <v>4610</v>
+        <v>4608</v>
       </c>
       <c r="B4686">
         <v>5</v>
@@ -53909,7 +53845,7 @@
     </row>
     <row r="4687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4687" t="s">
-        <v>4611</v>
+        <v>4609</v>
       </c>
       <c r="B4687">
         <v>5</v>
@@ -53917,7 +53853,7 @@
     </row>
     <row r="4688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4688" t="s">
-        <v>4612</v>
+        <v>4610</v>
       </c>
       <c r="B4688">
         <v>5</v>
@@ -53925,7 +53861,7 @@
     </row>
     <row r="4689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4689" t="s">
-        <v>4613</v>
+        <v>4611</v>
       </c>
       <c r="B4689">
         <v>5</v>
@@ -53933,7 +53869,7 @@
     </row>
     <row r="4690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4690" t="s">
-        <v>4614</v>
+        <v>4612</v>
       </c>
       <c r="B4690">
         <v>5</v>
@@ -53941,7 +53877,7 @@
     </row>
     <row r="4691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4691" t="s">
-        <v>4615</v>
+        <v>4613</v>
       </c>
       <c r="B4691">
         <v>5</v>
@@ -53949,7 +53885,7 @@
     </row>
     <row r="4692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4692" t="s">
-        <v>4616</v>
+        <v>4614</v>
       </c>
       <c r="B4692">
         <v>5</v>
@@ -53957,7 +53893,7 @@
     </row>
     <row r="4693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4693" t="s">
-        <v>4617</v>
+        <v>4615</v>
       </c>
       <c r="B4693">
         <v>5</v>
@@ -53965,7 +53901,7 @@
     </row>
     <row r="4694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4694" t="s">
-        <v>4618</v>
+        <v>4616</v>
       </c>
       <c r="B4694">
         <v>5</v>
@@ -53973,7 +53909,7 @@
     </row>
     <row r="4695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4695" t="s">
-        <v>4619</v>
+        <v>4617</v>
       </c>
       <c r="B4695">
         <v>5</v>
@@ -53989,7 +53925,7 @@
     </row>
     <row r="4697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4697" t="s">
-        <v>4620</v>
+        <v>4619</v>
       </c>
       <c r="B4697">
         <v>5</v>
@@ -53997,7 +53933,7 @@
     </row>
     <row r="4698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4698" t="s">
-        <v>4621</v>
+        <v>4620</v>
       </c>
       <c r="B4698">
         <v>5</v>
@@ -54005,7 +53941,7 @@
     </row>
     <row r="4699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4699" t="s">
-        <v>4622</v>
+        <v>4621</v>
       </c>
       <c r="B4699">
         <v>5</v>
@@ -54013,7 +53949,7 @@
     </row>
     <row r="4700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4700" t="s">
-        <v>4623</v>
+        <v>4622</v>
       </c>
       <c r="B4700">
         <v>5</v>
@@ -54021,7 +53957,7 @@
     </row>
     <row r="4701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4701" t="s">
-        <v>4624</v>
+        <v>4623</v>
       </c>
       <c r="B4701">
         <v>5</v>
@@ -54029,7 +53965,7 @@
     </row>
     <row r="4702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4702" t="s">
-        <v>4625</v>
+        <v>4624</v>
       </c>
       <c r="B4702">
         <v>5</v>
@@ -54037,7 +53973,7 @@
     </row>
     <row r="4703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4703" t="s">
-        <v>4626</v>
+        <v>4625</v>
       </c>
       <c r="B4703">
         <v>5</v>
@@ -54045,7 +53981,7 @@
     </row>
     <row r="4704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4704" t="s">
-        <v>4627</v>
+        <v>4626</v>
       </c>
       <c r="B4704">
         <v>5</v>
@@ -54117,7 +54053,7 @@
     </row>
     <row r="4713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4713" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="B4713">
         <v>5</v>
@@ -54125,7 +54061,7 @@
     </row>
     <row r="4714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4714" t="s">
-        <v>4636</v>
+        <v>4635</v>
       </c>
       <c r="B4714">
         <v>5</v>
@@ -54133,7 +54069,7 @@
     </row>
     <row r="4715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4715" t="s">
-        <v>4637</v>
+        <v>4636</v>
       </c>
       <c r="B4715">
         <v>5</v>
@@ -54141,7 +54077,7 @@
     </row>
     <row r="4716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4716" t="s">
-        <v>4638</v>
+        <v>4637</v>
       </c>
       <c r="B4716">
         <v>5</v>
@@ -54149,7 +54085,7 @@
     </row>
     <row r="4717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4717" t="s">
-        <v>4639</v>
+        <v>4638</v>
       </c>
       <c r="B4717">
         <v>5</v>
@@ -54157,7 +54093,7 @@
     </row>
     <row r="4718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4718" t="s">
-        <v>4640</v>
+        <v>4639</v>
       </c>
       <c r="B4718">
         <v>5</v>
@@ -54165,7 +54101,7 @@
     </row>
     <row r="4719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4719" t="s">
-        <v>4641</v>
+        <v>4640</v>
       </c>
       <c r="B4719">
         <v>5</v>
@@ -54173,7 +54109,7 @@
     </row>
     <row r="4720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4720" t="s">
-        <v>4642</v>
+        <v>4641</v>
       </c>
       <c r="B4720">
         <v>5</v>
@@ -54181,7 +54117,7 @@
     </row>
     <row r="4721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4721" t="s">
-        <v>4643</v>
+        <v>4642</v>
       </c>
       <c r="B4721">
         <v>5</v>
@@ -54189,7 +54125,7 @@
     </row>
     <row r="4722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4722" t="s">
-        <v>4644</v>
+        <v>4643</v>
       </c>
       <c r="B4722">
         <v>5</v>
@@ -54197,7 +54133,7 @@
     </row>
     <row r="4723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4723" t="s">
-        <v>4645</v>
+        <v>4644</v>
       </c>
       <c r="B4723">
         <v>5</v>
@@ -54205,7 +54141,7 @@
     </row>
     <row r="4724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4724" t="s">
-        <v>4646</v>
+        <v>4645</v>
       </c>
       <c r="B4724">
         <v>5</v>
@@ -54213,7 +54149,7 @@
     </row>
     <row r="4725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4725" t="s">
-        <v>4647</v>
+        <v>4646</v>
       </c>
       <c r="B4725">
         <v>5</v>
@@ -54221,7 +54157,7 @@
     </row>
     <row r="4726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4726" t="s">
-        <v>4648</v>
+        <v>4647</v>
       </c>
       <c r="B4726">
         <v>5</v>
@@ -54229,7 +54165,7 @@
     </row>
     <row r="4727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4727" t="s">
-        <v>4649</v>
+        <v>4648</v>
       </c>
       <c r="B4727">
         <v>5</v>
@@ -54237,7 +54173,7 @@
     </row>
     <row r="4728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4728" t="s">
-        <v>4650</v>
+        <v>4649</v>
       </c>
       <c r="B4728">
         <v>5</v>
@@ -54245,7 +54181,7 @@
     </row>
     <row r="4729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4729" t="s">
-        <v>4651</v>
+        <v>4650</v>
       </c>
       <c r="B4729">
         <v>5</v>
@@ -54253,7 +54189,7 @@
     </row>
     <row r="4730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4730" t="s">
-        <v>4652</v>
+        <v>4651</v>
       </c>
       <c r="B4730">
         <v>5</v>
@@ -54261,7 +54197,7 @@
     </row>
     <row r="4731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4731" t="s">
-        <v>4653</v>
+        <v>4652</v>
       </c>
       <c r="B4731">
         <v>5</v>
@@ -54269,7 +54205,7 @@
     </row>
     <row r="4732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4732" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
       <c r="B4732">
         <v>5</v>
@@ -54469,7 +54405,7 @@
     </row>
     <row r="4757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4757" t="s">
-        <v>4678</v>
+        <v>4677</v>
       </c>
       <c r="B4757">
         <v>5</v>
@@ -54477,7 +54413,7 @@
     </row>
     <row r="4758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4758" t="s">
-        <v>4679</v>
+        <v>4678</v>
       </c>
       <c r="B4758">
         <v>5</v>
@@ -54485,138 +54421,138 @@
     </row>
     <row r="4759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4759" t="s">
-        <v>4680</v>
+        <v>4679</v>
       </c>
       <c r="B4759">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4760" t="s">
-        <v>4681</v>
+        <v>4680</v>
       </c>
       <c r="B4760">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4761" t="s">
-        <v>4682</v>
+        <v>4681</v>
       </c>
       <c r="B4761">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4762" t="s">
-        <v>4683</v>
+        <v>4682</v>
       </c>
       <c r="B4762">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4763" t="s">
-        <v>4684</v>
+        <v>4683</v>
       </c>
       <c r="B4763">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4764" t="s">
-        <v>4685</v>
+        <v>4684</v>
       </c>
       <c r="B4764">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4765" t="s">
-        <v>4686</v>
+        <v>4685</v>
       </c>
       <c r="B4765">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4766" t="s">
-        <v>4687</v>
+        <v>4686</v>
       </c>
       <c r="B4766">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4767" t="s">
-        <v>4688</v>
+        <v>4687</v>
       </c>
       <c r="B4767">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4768" t="s">
-        <v>4689</v>
+        <v>4688</v>
       </c>
       <c r="B4768">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4769" t="s">
-        <v>4690</v>
+        <v>4689</v>
       </c>
       <c r="B4769">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4770" t="s">
-        <v>4691</v>
+        <v>4690</v>
       </c>
       <c r="B4770">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4771" t="s">
-        <v>4692</v>
+        <v>4691</v>
       </c>
       <c r="B4771">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4772" t="s">
-        <v>4693</v>
+        <v>4692</v>
       </c>
       <c r="B4772">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4773" t="s">
-        <v>4694</v>
+        <v>4693</v>
       </c>
       <c r="B4773">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4774" t="s">
-        <v>4695</v>
+        <v>4694</v>
       </c>
       <c r="B4774">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4775" t="s">
-        <v>4696</v>
+        <v>4695</v>
       </c>
       <c r="B4775">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4776" spans="1:2" x14ac:dyDescent="0.3">
@@ -54624,7 +54560,7 @@
         <v>4696</v>
       </c>
       <c r="B4776">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4777" spans="1:2" x14ac:dyDescent="0.3">
@@ -54632,7 +54568,7 @@
         <v>4697</v>
       </c>
       <c r="B4777">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4778" spans="1:2" x14ac:dyDescent="0.3">
@@ -54645,7 +54581,7 @@
     </row>
     <row r="4779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4779" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="B4779">
         <v>6</v>
@@ -54653,7 +54589,7 @@
     </row>
     <row r="4780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4780" t="s">
-        <v>4700</v>
+        <v>4699</v>
       </c>
       <c r="B4780">
         <v>6</v>
@@ -54661,7 +54597,7 @@
     </row>
     <row r="4781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4781" t="s">
-        <v>4701</v>
+        <v>4700</v>
       </c>
       <c r="B4781">
         <v>6</v>
@@ -54669,7 +54605,7 @@
     </row>
     <row r="4782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4782" t="s">
-        <v>4702</v>
+        <v>4701</v>
       </c>
       <c r="B4782">
         <v>6</v>
@@ -54677,7 +54613,7 @@
     </row>
     <row r="4783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4783" t="s">
-        <v>4703</v>
+        <v>4702</v>
       </c>
       <c r="B4783">
         <v>6</v>
@@ -54685,7 +54621,7 @@
     </row>
     <row r="4784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4784" t="s">
-        <v>4704</v>
+        <v>4703</v>
       </c>
       <c r="B4784">
         <v>6</v>
@@ -54693,7 +54629,7 @@
     </row>
     <row r="4785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4785" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="B4785">
         <v>6</v>
@@ -54701,7 +54637,7 @@
     </row>
     <row r="4786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4786" t="s">
-        <v>4706</v>
+        <v>4705</v>
       </c>
       <c r="B4786">
         <v>6</v>
@@ -54709,7 +54645,7 @@
     </row>
     <row r="4787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4787" t="s">
-        <v>4707</v>
+        <v>4706</v>
       </c>
       <c r="B4787">
         <v>6</v>
@@ -54717,7 +54653,7 @@
     </row>
     <row r="4788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4788" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="B4788">
         <v>6</v>
@@ -54725,7 +54661,7 @@
     </row>
     <row r="4789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4789" t="s">
-        <v>4709</v>
+        <v>4708</v>
       </c>
       <c r="B4789">
         <v>6</v>
@@ -54733,7 +54669,7 @@
     </row>
     <row r="4790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4790" t="s">
-        <v>4710</v>
+        <v>4709</v>
       </c>
       <c r="B4790">
         <v>6</v>
@@ -54741,7 +54677,7 @@
     </row>
     <row r="4791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4791" t="s">
-        <v>4711</v>
+        <v>4710</v>
       </c>
       <c r="B4791">
         <v>6</v>
@@ -54749,7 +54685,7 @@
     </row>
     <row r="4792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4792" t="s">
-        <v>4712</v>
+        <v>4711</v>
       </c>
       <c r="B4792">
         <v>6</v>
@@ -54757,7 +54693,7 @@
     </row>
     <row r="4793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4793" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="B4793">
         <v>6</v>
@@ -54765,7 +54701,7 @@
     </row>
     <row r="4794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4794" t="s">
-        <v>4714</v>
+        <v>4713</v>
       </c>
       <c r="B4794">
         <v>6</v>
@@ -54773,7 +54709,7 @@
     </row>
     <row r="4795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4795" t="s">
-        <v>4715</v>
+        <v>4714</v>
       </c>
       <c r="B4795">
         <v>6</v>
@@ -54781,7 +54717,7 @@
     </row>
     <row r="4796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4796" t="s">
-        <v>4716</v>
+        <v>4715</v>
       </c>
       <c r="B4796">
         <v>6</v>
@@ -54789,7 +54725,7 @@
     </row>
     <row r="4797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4797" t="s">
-        <v>4717</v>
+        <v>4716</v>
       </c>
       <c r="B4797">
         <v>6</v>
@@ -55157,7 +55093,7 @@
     </row>
     <row r="4843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4843" t="s">
-        <v>4762</v>
+        <v>4761</v>
       </c>
       <c r="B4843">
         <v>6</v>
@@ -55165,7 +55101,7 @@
     </row>
     <row r="4844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4844" t="s">
-        <v>4763</v>
+        <v>4762</v>
       </c>
       <c r="B4844">
         <v>6</v>
@@ -55173,7 +55109,7 @@
     </row>
     <row r="4845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4845" t="s">
-        <v>4764</v>
+        <v>4763</v>
       </c>
       <c r="B4845">
         <v>6</v>
@@ -55181,7 +55117,7 @@
     </row>
     <row r="4846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4846" t="s">
-        <v>4765</v>
+        <v>4764</v>
       </c>
       <c r="B4846">
         <v>6</v>
@@ -55189,7 +55125,7 @@
     </row>
     <row r="4847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4847" t="s">
-        <v>4766</v>
+        <v>4765</v>
       </c>
       <c r="B4847">
         <v>6</v>
@@ -55197,7 +55133,7 @@
     </row>
     <row r="4848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4848" t="s">
-        <v>4767</v>
+        <v>4766</v>
       </c>
       <c r="B4848">
         <v>6</v>
@@ -55205,7 +55141,7 @@
     </row>
     <row r="4849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4849" t="s">
-        <v>4768</v>
+        <v>4767</v>
       </c>
       <c r="B4849">
         <v>6</v>
@@ -55213,7 +55149,7 @@
     </row>
     <row r="4850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4850" t="s">
-        <v>4769</v>
+        <v>4768</v>
       </c>
       <c r="B4850">
         <v>6</v>
@@ -55221,7 +55157,7 @@
     </row>
     <row r="4851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4851" t="s">
-        <v>4770</v>
+        <v>4769</v>
       </c>
       <c r="B4851">
         <v>6</v>
@@ -55229,7 +55165,7 @@
     </row>
     <row r="4852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4852" t="s">
-        <v>4771</v>
+        <v>4770</v>
       </c>
       <c r="B4852">
         <v>6</v>
@@ -55237,7 +55173,7 @@
     </row>
     <row r="4853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4853" t="s">
-        <v>4772</v>
+        <v>4771</v>
       </c>
       <c r="B4853">
         <v>6</v>
@@ -55245,7 +55181,7 @@
     </row>
     <row r="4854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4854" t="s">
-        <v>4773</v>
+        <v>4772</v>
       </c>
       <c r="B4854">
         <v>6</v>
@@ -55253,7 +55189,7 @@
     </row>
     <row r="4855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4855" t="s">
-        <v>4774</v>
+        <v>4773</v>
       </c>
       <c r="B4855">
         <v>6</v>
@@ -55261,7 +55197,7 @@
     </row>
     <row r="4856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4856" t="s">
-        <v>4775</v>
+        <v>4774</v>
       </c>
       <c r="B4856">
         <v>6</v>
@@ -55269,7 +55205,7 @@
     </row>
     <row r="4857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4857" t="s">
-        <v>4776</v>
+        <v>4775</v>
       </c>
       <c r="B4857">
         <v>6</v>
@@ -55277,7 +55213,7 @@
     </row>
     <row r="4858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4858" t="s">
-        <v>4777</v>
+        <v>4776</v>
       </c>
       <c r="B4858">
         <v>6</v>
@@ -55285,7 +55221,7 @@
     </row>
     <row r="4859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4859" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="B4859">
         <v>6</v>
@@ -55293,7 +55229,7 @@
     </row>
     <row r="4860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4860" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="B4860">
         <v>6</v>
@@ -55301,7 +55237,7 @@
     </row>
     <row r="4861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4861" t="s">
-        <v>4780</v>
+        <v>4778</v>
       </c>
       <c r="B4861">
         <v>6</v>
@@ -55309,7 +55245,7 @@
     </row>
     <row r="4862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4862" t="s">
-        <v>4781</v>
+        <v>4779</v>
       </c>
       <c r="B4862">
         <v>6</v>
@@ -55317,7 +55253,7 @@
     </row>
     <row r="4863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4863" t="s">
-        <v>4781</v>
+        <v>4780</v>
       </c>
       <c r="B4863">
         <v>6</v>
@@ -55325,7 +55261,7 @@
     </row>
     <row r="4864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4864" t="s">
-        <v>4782</v>
+        <v>4781</v>
       </c>
       <c r="B4864">
         <v>6</v>
@@ -55333,7 +55269,7 @@
     </row>
     <row r="4865" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4865" t="s">
-        <v>4783</v>
+        <v>4782</v>
       </c>
       <c r="B4865">
         <v>6</v>
@@ -55341,7 +55277,7 @@
     </row>
     <row r="4866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4866" t="s">
-        <v>4784</v>
+        <v>4783</v>
       </c>
       <c r="B4866">
         <v>6</v>
@@ -55349,7 +55285,7 @@
     </row>
     <row r="4867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4867" t="s">
-        <v>4785</v>
+        <v>4784</v>
       </c>
       <c r="B4867">
         <v>6</v>
@@ -55357,7 +55293,7 @@
     </row>
     <row r="4868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4868" t="s">
-        <v>4786</v>
+        <v>4785</v>
       </c>
       <c r="B4868">
         <v>6</v>
@@ -55365,7 +55301,7 @@
     </row>
     <row r="4869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4869" t="s">
-        <v>4787</v>
+        <v>4786</v>
       </c>
       <c r="B4869">
         <v>6</v>
@@ -55373,7 +55309,7 @@
     </row>
     <row r="4870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4870" t="s">
-        <v>4788</v>
+        <v>4787</v>
       </c>
       <c r="B4870">
         <v>6</v>
@@ -55381,7 +55317,7 @@
     </row>
     <row r="4871" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4871" t="s">
-        <v>4789</v>
+        <v>4788</v>
       </c>
       <c r="B4871">
         <v>6</v>
@@ -55389,7 +55325,7 @@
     </row>
     <row r="4872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4872" t="s">
-        <v>4790</v>
+        <v>4789</v>
       </c>
       <c r="B4872">
         <v>6</v>
@@ -55397,7 +55333,7 @@
     </row>
     <row r="4873" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4873" t="s">
-        <v>4791</v>
+        <v>4790</v>
       </c>
       <c r="B4873">
         <v>6</v>
@@ -55405,7 +55341,7 @@
     </row>
     <row r="4874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4874" t="s">
-        <v>4792</v>
+        <v>4791</v>
       </c>
       <c r="B4874">
         <v>6</v>
@@ -55413,7 +55349,7 @@
     </row>
     <row r="4875" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4875" t="s">
-        <v>4793</v>
+        <v>4792</v>
       </c>
       <c r="B4875">
         <v>6</v>
@@ -55421,7 +55357,7 @@
     </row>
     <row r="4876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4876" t="s">
-        <v>4794</v>
+        <v>4793</v>
       </c>
       <c r="B4876">
         <v>6</v>
@@ -55429,7 +55365,7 @@
     </row>
     <row r="4877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4877" t="s">
-        <v>4795</v>
+        <v>4794</v>
       </c>
       <c r="B4877">
         <v>6</v>
@@ -55437,7 +55373,7 @@
     </row>
     <row r="4878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4878" t="s">
-        <v>4796</v>
+        <v>4795</v>
       </c>
       <c r="B4878">
         <v>6</v>
@@ -55845,7 +55781,7 @@
     </row>
     <row r="4929" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4929" t="s">
-        <v>4846</v>
+        <v>4806</v>
       </c>
       <c r="B4929">
         <v>6</v>
@@ -55853,7 +55789,7 @@
     </row>
     <row r="4930" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4930" t="s">
-        <v>4847</v>
+        <v>4846</v>
       </c>
       <c r="B4930">
         <v>6</v>
@@ -55861,7 +55797,7 @@
     </row>
     <row r="4931" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4931" t="s">
-        <v>4848</v>
+        <v>4847</v>
       </c>
       <c r="B4931">
         <v>6</v>
@@ -55869,7 +55805,7 @@
     </row>
     <row r="4932" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4932" t="s">
-        <v>4849</v>
+        <v>4848</v>
       </c>
       <c r="B4932">
         <v>6</v>
@@ -55877,7 +55813,7 @@
     </row>
     <row r="4933" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4933" t="s">
-        <v>4850</v>
+        <v>4849</v>
       </c>
       <c r="B4933">
         <v>6</v>
@@ -55885,7 +55821,7 @@
     </row>
     <row r="4934" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4934" t="s">
-        <v>4851</v>
+        <v>4850</v>
       </c>
       <c r="B4934">
         <v>6</v>
@@ -55893,7 +55829,7 @@
     </row>
     <row r="4935" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4935" t="s">
-        <v>4852</v>
+        <v>4851</v>
       </c>
       <c r="B4935">
         <v>6</v>
@@ -55901,7 +55837,7 @@
     </row>
     <row r="4936" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4936" t="s">
-        <v>4853</v>
+        <v>4852</v>
       </c>
       <c r="B4936">
         <v>6</v>
@@ -55909,7 +55845,7 @@
     </row>
     <row r="4937" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4937" t="s">
-        <v>4854</v>
+        <v>4853</v>
       </c>
       <c r="B4937">
         <v>6</v>
@@ -55917,7 +55853,7 @@
     </row>
     <row r="4938" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4938" t="s">
-        <v>4855</v>
+        <v>4854</v>
       </c>
       <c r="B4938">
         <v>6</v>
@@ -55925,7 +55861,7 @@
     </row>
     <row r="4939" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4939" t="s">
-        <v>4856</v>
+        <v>4855</v>
       </c>
       <c r="B4939">
         <v>6</v>
@@ -55933,7 +55869,7 @@
     </row>
     <row r="4940" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4940" t="s">
-        <v>4857</v>
+        <v>4856</v>
       </c>
       <c r="B4940">
         <v>6</v>
@@ -55941,7 +55877,7 @@
     </row>
     <row r="4941" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4941" t="s">
-        <v>4858</v>
+        <v>4857</v>
       </c>
       <c r="B4941">
         <v>6</v>
@@ -55949,7 +55885,7 @@
     </row>
     <row r="4942" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4942" t="s">
-        <v>4859</v>
+        <v>4858</v>
       </c>
       <c r="B4942">
         <v>6</v>
@@ -55957,7 +55893,7 @@
     </row>
     <row r="4943" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4943" t="s">
-        <v>4860</v>
+        <v>4859</v>
       </c>
       <c r="B4943">
         <v>6</v>
@@ -55965,7 +55901,7 @@
     </row>
     <row r="4944" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4944" t="s">
-        <v>4861</v>
+        <v>4860</v>
       </c>
       <c r="B4944">
         <v>6</v>
@@ -55973,7 +55909,7 @@
     </row>
     <row r="4945" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4945" t="s">
-        <v>4862</v>
+        <v>4861</v>
       </c>
       <c r="B4945">
         <v>6</v>
@@ -55981,7 +55917,7 @@
     </row>
     <row r="4946" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4946" t="s">
-        <v>4863</v>
+        <v>4862</v>
       </c>
       <c r="B4946">
         <v>6</v>
@@ -55989,7 +55925,7 @@
     </row>
     <row r="4947" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4947" t="s">
-        <v>4864</v>
+        <v>4863</v>
       </c>
       <c r="B4947">
         <v>6</v>
@@ -55997,7 +55933,7 @@
     </row>
     <row r="4948" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4948" t="s">
-        <v>4865</v>
+        <v>4862</v>
       </c>
       <c r="B4948">
         <v>6</v>
@@ -56005,7 +55941,7 @@
     </row>
     <row r="4949" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4949" t="s">
-        <v>4866</v>
+        <v>4864</v>
       </c>
       <c r="B4949">
         <v>6</v>
@@ -56013,7 +55949,7 @@
     </row>
     <row r="4950" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4950" t="s">
-        <v>4826</v>
+        <v>4865</v>
       </c>
       <c r="B4950">
         <v>6</v>
@@ -56021,7 +55957,7 @@
     </row>
     <row r="4951" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4951" t="s">
-        <v>4867</v>
+        <v>4866</v>
       </c>
       <c r="B4951">
         <v>6</v>
@@ -56029,7 +55965,7 @@
     </row>
     <row r="4952" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4952" t="s">
-        <v>4868</v>
+        <v>4867</v>
       </c>
       <c r="B4952">
         <v>6</v>
@@ -56037,7 +55973,7 @@
     </row>
     <row r="4953" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4953" t="s">
-        <v>4869</v>
+        <v>4868</v>
       </c>
       <c r="B4953">
         <v>6</v>
@@ -56045,7 +55981,7 @@
     </row>
     <row r="4954" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4954" t="s">
-        <v>4870</v>
+        <v>4869</v>
       </c>
       <c r="B4954">
         <v>6</v>
@@ -56053,7 +55989,7 @@
     </row>
     <row r="4955" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4955" t="s">
-        <v>4871</v>
+        <v>4870</v>
       </c>
       <c r="B4955">
         <v>6</v>
@@ -56061,7 +55997,7 @@
     </row>
     <row r="4956" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4956" t="s">
-        <v>4872</v>
+        <v>4871</v>
       </c>
       <c r="B4956">
         <v>6</v>
@@ -56069,7 +56005,7 @@
     </row>
     <row r="4957" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4957" t="s">
-        <v>4873</v>
+        <v>4872</v>
       </c>
       <c r="B4957">
         <v>6</v>
@@ -56077,7 +56013,7 @@
     </row>
     <row r="4958" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4958" t="s">
-        <v>4874</v>
+        <v>4873</v>
       </c>
       <c r="B4958">
         <v>6</v>
@@ -56085,7 +56021,7 @@
     </row>
     <row r="4959" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4959" t="s">
-        <v>4875</v>
+        <v>4874</v>
       </c>
       <c r="B4959">
         <v>6</v>
@@ -56093,7 +56029,7 @@
     </row>
     <row r="4960" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4960" t="s">
-        <v>4876</v>
+        <v>4875</v>
       </c>
       <c r="B4960">
         <v>6</v>
@@ -56101,7 +56037,7 @@
     </row>
     <row r="4961" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4961" t="s">
-        <v>4877</v>
+        <v>4876</v>
       </c>
       <c r="B4961">
         <v>6</v>
@@ -56109,7 +56045,7 @@
     </row>
     <row r="4962" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4962" t="s">
-        <v>4878</v>
+        <v>4877</v>
       </c>
       <c r="B4962">
         <v>6</v>
@@ -56117,7 +56053,7 @@
     </row>
     <row r="4963" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4963" t="s">
-        <v>4879</v>
+        <v>4878</v>
       </c>
       <c r="B4963">
         <v>6</v>
@@ -56125,7 +56061,7 @@
     </row>
     <row r="4964" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4964" t="s">
-        <v>4880</v>
+        <v>4879</v>
       </c>
       <c r="B4964">
         <v>6</v>
@@ -56133,7 +56069,7 @@
     </row>
     <row r="4965" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4965" t="s">
-        <v>4881</v>
+        <v>4880</v>
       </c>
       <c r="B4965">
         <v>6</v>
@@ -56141,7 +56077,7 @@
     </row>
     <row r="4966" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4966" t="s">
-        <v>4882</v>
+        <v>4881</v>
       </c>
       <c r="B4966">
         <v>6</v>
@@ -56149,7 +56085,7 @@
     </row>
     <row r="4967" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4967" t="s">
-        <v>4883</v>
+        <v>4882</v>
       </c>
       <c r="B4967">
         <v>6</v>
@@ -56157,7 +56093,7 @@
     </row>
     <row r="4968" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4968" t="s">
-        <v>4884</v>
+        <v>4883</v>
       </c>
       <c r="B4968">
         <v>6</v>
@@ -56165,7 +56101,7 @@
     </row>
     <row r="4969" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4969" t="s">
-        <v>4883</v>
+        <v>4884</v>
       </c>
       <c r="B4969">
         <v>6</v>
@@ -57453,7 +57389,7 @@
     </row>
     <row r="5130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5130" t="s">
-        <v>5045</v>
+        <v>5044</v>
       </c>
       <c r="B5130">
         <v>6</v>
@@ -57461,7 +57397,7 @@
     </row>
     <row r="5131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5131" t="s">
-        <v>5046</v>
+        <v>5045</v>
       </c>
       <c r="B5131">
         <v>6</v>
@@ -57469,7 +57405,7 @@
     </row>
     <row r="5132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5132" t="s">
-        <v>5047</v>
+        <v>5046</v>
       </c>
       <c r="B5132">
         <v>6</v>
@@ -57477,7 +57413,7 @@
     </row>
     <row r="5133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5133" t="s">
-        <v>5048</v>
+        <v>5047</v>
       </c>
       <c r="B5133">
         <v>6</v>
@@ -57485,7 +57421,7 @@
     </row>
     <row r="5134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5134" t="s">
-        <v>5049</v>
+        <v>5048</v>
       </c>
       <c r="B5134">
         <v>6</v>
@@ -57493,7 +57429,7 @@
     </row>
     <row r="5135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5135" t="s">
-        <v>5050</v>
+        <v>5049</v>
       </c>
       <c r="B5135">
         <v>6</v>
@@ -57501,7 +57437,7 @@
     </row>
     <row r="5136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5136" t="s">
-        <v>5051</v>
+        <v>5050</v>
       </c>
       <c r="B5136">
         <v>6</v>
@@ -57509,7 +57445,7 @@
     </row>
     <row r="5137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5137" t="s">
-        <v>5052</v>
+        <v>5051</v>
       </c>
       <c r="B5137">
         <v>6</v>
@@ -57517,7 +57453,7 @@
     </row>
     <row r="5138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5138" t="s">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="B5138">
         <v>6</v>
@@ -57525,7 +57461,7 @@
     </row>
     <row r="5139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5139" t="s">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="B5139">
         <v>6</v>
@@ -57533,7 +57469,7 @@
     </row>
     <row r="5140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5140" t="s">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="B5140">
         <v>6</v>
@@ -57541,7 +57477,7 @@
     </row>
     <row r="5141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5141" t="s">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="B5141">
         <v>6</v>
@@ -57549,7 +57485,7 @@
     </row>
     <row r="5142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5142" t="s">
-        <v>5057</v>
+        <v>5056</v>
       </c>
       <c r="B5142">
         <v>6</v>
@@ -57557,7 +57493,7 @@
     </row>
     <row r="5143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5143" t="s">
-        <v>5058</v>
+        <v>5057</v>
       </c>
       <c r="B5143">
         <v>6</v>
@@ -57565,7 +57501,7 @@
     </row>
     <row r="5144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5144" t="s">
-        <v>5059</v>
+        <v>5058</v>
       </c>
       <c r="B5144">
         <v>6</v>
@@ -57573,7 +57509,7 @@
     </row>
     <row r="5145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5145" t="s">
-        <v>5060</v>
+        <v>5059</v>
       </c>
       <c r="B5145">
         <v>6</v>
@@ -57581,7 +57517,7 @@
     </row>
     <row r="5146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5146" t="s">
-        <v>5061</v>
+        <v>5060</v>
       </c>
       <c r="B5146">
         <v>6</v>
@@ -57589,7 +57525,7 @@
     </row>
     <row r="5147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5147" t="s">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="B5147">
         <v>6</v>
@@ -57597,7 +57533,7 @@
     </row>
     <row r="5148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5148" t="s">
-        <v>5063</v>
+        <v>5062</v>
       </c>
       <c r="B5148">
         <v>6</v>
@@ -57605,7 +57541,7 @@
     </row>
     <row r="5149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5149" t="s">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="B5149">
         <v>6</v>
@@ -57613,7 +57549,7 @@
     </row>
     <row r="5150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5150" t="s">
-        <v>5065</v>
+        <v>5064</v>
       </c>
       <c r="B5150">
         <v>6</v>
@@ -57893,7 +57829,7 @@
     </row>
     <row r="5185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5185" t="s">
-        <v>5099</v>
+        <v>5098</v>
       </c>
       <c r="B5185">
         <v>6</v>
@@ -57901,7 +57837,7 @@
     </row>
     <row r="5186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5186" t="s">
-        <v>5100</v>
+        <v>5099</v>
       </c>
       <c r="B5186">
         <v>6</v>
@@ -57909,7 +57845,7 @@
     </row>
     <row r="5187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5187" t="s">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="B5187">
         <v>6</v>
@@ -57917,7 +57853,7 @@
     </row>
     <row r="5188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5188" t="s">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="B5188">
         <v>6</v>
@@ -57925,7 +57861,7 @@
     </row>
     <row r="5189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5189" t="s">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="B5189">
         <v>6</v>
@@ -57933,7 +57869,7 @@
     </row>
     <row r="5190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5190" t="s">
-        <v>5104</v>
+        <v>5103</v>
       </c>
       <c r="B5190">
         <v>6</v>
@@ -57941,7 +57877,7 @@
     </row>
     <row r="5191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5191" t="s">
-        <v>5105</v>
+        <v>5104</v>
       </c>
       <c r="B5191">
         <v>6</v>
@@ -57949,7 +57885,7 @@
     </row>
     <row r="5192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5192" t="s">
-        <v>5106</v>
+        <v>5105</v>
       </c>
       <c r="B5192">
         <v>6</v>
@@ -57957,7 +57893,7 @@
     </row>
     <row r="5193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5193" t="s">
-        <v>5107</v>
+        <v>5106</v>
       </c>
       <c r="B5193">
         <v>6</v>
@@ -57965,7 +57901,7 @@
     </row>
     <row r="5194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5194" t="s">
-        <v>5108</v>
+        <v>5107</v>
       </c>
       <c r="B5194">
         <v>6</v>
@@ -57973,7 +57909,7 @@
     </row>
     <row r="5195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5195" t="s">
-        <v>5109</v>
+        <v>5108</v>
       </c>
       <c r="B5195">
         <v>6</v>
@@ -57981,7 +57917,7 @@
     </row>
     <row r="5196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5196" t="s">
-        <v>5110</v>
+        <v>5109</v>
       </c>
       <c r="B5196">
         <v>6</v>
@@ -57989,7 +57925,7 @@
     </row>
     <row r="5197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5197" t="s">
-        <v>5111</v>
+        <v>5110</v>
       </c>
       <c r="B5197">
         <v>6</v>
@@ -57997,7 +57933,7 @@
     </row>
     <row r="5198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5198" t="s">
-        <v>5112</v>
+        <v>5111</v>
       </c>
       <c r="B5198">
         <v>6</v>
@@ -58005,7 +57941,7 @@
     </row>
     <row r="5199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5199" t="s">
-        <v>5113</v>
+        <v>5112</v>
       </c>
       <c r="B5199">
         <v>6</v>
@@ -58013,7 +57949,7 @@
     </row>
     <row r="5200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5200" t="s">
-        <v>5114</v>
+        <v>5113</v>
       </c>
       <c r="B5200">
         <v>6</v>
@@ -58021,7 +57957,7 @@
     </row>
     <row r="5201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5201" t="s">
-        <v>5115</v>
+        <v>5114</v>
       </c>
       <c r="B5201">
         <v>6</v>
@@ -58029,7 +57965,7 @@
     </row>
     <row r="5202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5202" t="s">
-        <v>5116</v>
+        <v>5115</v>
       </c>
       <c r="B5202">
         <v>6</v>
@@ -58037,7 +57973,7 @@
     </row>
     <row r="5203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5203" t="s">
-        <v>5117</v>
+        <v>5116</v>
       </c>
       <c r="B5203">
         <v>6</v>
@@ -58045,7 +57981,7 @@
     </row>
     <row r="5204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5204" t="s">
-        <v>5118</v>
+        <v>5117</v>
       </c>
       <c r="B5204">
         <v>6</v>
@@ -58053,7 +57989,7 @@
     </row>
     <row r="5205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5205" t="s">
-        <v>5119</v>
+        <v>5118</v>
       </c>
       <c r="B5205">
         <v>6</v>
@@ -58877,7 +58813,7 @@
     </row>
     <row r="5308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5308" t="s">
-        <v>5221</v>
+        <v>5222</v>
       </c>
       <c r="B5308">
         <v>6</v>
@@ -58885,7 +58821,7 @@
     </row>
     <row r="5309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5309" t="s">
-        <v>5222</v>
+        <v>5221</v>
       </c>
       <c r="B5309">
         <v>6</v>
@@ -59069,7 +59005,7 @@
     </row>
     <row r="5332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5332" t="s">
-        <v>5243</v>
+        <v>5245</v>
       </c>
       <c r="B5332">
         <v>6</v>
@@ -59077,7 +59013,7 @@
     </row>
     <row r="5333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5333" t="s">
-        <v>5245</v>
+        <v>5246</v>
       </c>
       <c r="B5333">
         <v>6</v>
@@ -59085,7 +59021,7 @@
     </row>
     <row r="5334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5334" t="s">
-        <v>5246</v>
+        <v>5247</v>
       </c>
       <c r="B5334">
         <v>6</v>
@@ -59093,7 +59029,7 @@
     </row>
     <row r="5335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5335" t="s">
-        <v>5247</v>
+        <v>5248</v>
       </c>
       <c r="B5335">
         <v>6</v>
@@ -59101,7 +59037,7 @@
     </row>
     <row r="5336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5336" t="s">
-        <v>5248</v>
+        <v>5249</v>
       </c>
       <c r="B5336">
         <v>6</v>
@@ -59109,7 +59045,7 @@
     </row>
     <row r="5337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5337" t="s">
-        <v>5249</v>
+        <v>5250</v>
       </c>
       <c r="B5337">
         <v>6</v>
@@ -59117,7 +59053,7 @@
     </row>
     <row r="5338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5338" t="s">
-        <v>5250</v>
+        <v>5251</v>
       </c>
       <c r="B5338">
         <v>6</v>
@@ -59125,7 +59061,7 @@
     </row>
     <row r="5339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5339" t="s">
-        <v>5251</v>
+        <v>5252</v>
       </c>
       <c r="B5339">
         <v>6</v>
@@ -59133,7 +59069,7 @@
     </row>
     <row r="5340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5340" t="s">
-        <v>5252</v>
+        <v>5253</v>
       </c>
       <c r="B5340">
         <v>6</v>
@@ -59141,7 +59077,7 @@
     </row>
     <row r="5341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5341" t="s">
-        <v>5253</v>
+        <v>5254</v>
       </c>
       <c r="B5341">
         <v>6</v>
@@ -59149,7 +59085,7 @@
     </row>
     <row r="5342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5342" t="s">
-        <v>5254</v>
+        <v>5255</v>
       </c>
       <c r="B5342">
         <v>6</v>
@@ -59157,7 +59093,7 @@
     </row>
     <row r="5343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5343" t="s">
-        <v>5255</v>
+        <v>5256</v>
       </c>
       <c r="B5343">
         <v>6</v>
@@ -59165,7 +59101,7 @@
     </row>
     <row r="5344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5344" t="s">
-        <v>5256</v>
+        <v>5257</v>
       </c>
       <c r="B5344">
         <v>6</v>
@@ -59173,7 +59109,7 @@
     </row>
     <row r="5345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5345" t="s">
-        <v>5257</v>
+        <v>5258</v>
       </c>
       <c r="B5345">
         <v>6</v>
@@ -59181,7 +59117,7 @@
     </row>
     <row r="5346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5346" t="s">
-        <v>5258</v>
+        <v>5259</v>
       </c>
       <c r="B5346">
         <v>6</v>
@@ -59189,7 +59125,7 @@
     </row>
     <row r="5347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5347" t="s">
-        <v>5259</v>
+        <v>5260</v>
       </c>
       <c r="B5347">
         <v>6</v>
@@ -59197,7 +59133,7 @@
     </row>
     <row r="5348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5348" t="s">
-        <v>5260</v>
+        <v>5261</v>
       </c>
       <c r="B5348">
         <v>6</v>
@@ -59205,7 +59141,7 @@
     </row>
     <row r="5349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5349" t="s">
-        <v>5261</v>
+        <v>5262</v>
       </c>
       <c r="B5349">
         <v>6</v>
@@ -59213,7 +59149,7 @@
     </row>
     <row r="5350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5350" t="s">
-        <v>5262</v>
+        <v>5263</v>
       </c>
       <c r="B5350">
         <v>6</v>
@@ -59221,7 +59157,7 @@
     </row>
     <row r="5351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5351" t="s">
-        <v>5263</v>
+        <v>5264</v>
       </c>
       <c r="B5351">
         <v>6</v>
@@ -59229,7 +59165,7 @@
     </row>
     <row r="5352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5352" t="s">
-        <v>5264</v>
+        <v>5265</v>
       </c>
       <c r="B5352">
         <v>6</v>
@@ -59237,7 +59173,7 @@
     </row>
     <row r="5353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5353" t="s">
-        <v>5265</v>
+        <v>5266</v>
       </c>
       <c r="B5353">
         <v>6</v>
@@ -59245,7 +59181,7 @@
     </row>
     <row r="5354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5354" t="s">
-        <v>5266</v>
+        <v>5267</v>
       </c>
       <c r="B5354">
         <v>6</v>
@@ -59253,7 +59189,7 @@
     </row>
     <row r="5355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5355" t="s">
-        <v>5267</v>
+        <v>5268</v>
       </c>
       <c r="B5355">
         <v>6</v>
@@ -59261,7 +59197,7 @@
     </row>
     <row r="5356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5356" t="s">
-        <v>5268</v>
+        <v>5269</v>
       </c>
       <c r="B5356">
         <v>6</v>
@@ -59269,7 +59205,7 @@
     </row>
     <row r="5357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5357" t="s">
-        <v>5269</v>
+        <v>5270</v>
       </c>
       <c r="B5357">
         <v>6</v>
@@ -59277,7 +59213,7 @@
     </row>
     <row r="5358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5358" t="s">
-        <v>5270</v>
+        <v>5271</v>
       </c>
       <c r="B5358">
         <v>6</v>
@@ -59285,7 +59221,7 @@
     </row>
     <row r="5359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5359" t="s">
-        <v>5271</v>
+        <v>5272</v>
       </c>
       <c r="B5359">
         <v>6</v>
@@ -59293,7 +59229,7 @@
     </row>
     <row r="5360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5360" t="s">
-        <v>5272</v>
+        <v>5273</v>
       </c>
       <c r="B5360">
         <v>6</v>
@@ -59301,7 +59237,7 @@
     </row>
     <row r="5361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5361" t="s">
-        <v>5273</v>
+        <v>5274</v>
       </c>
       <c r="B5361">
         <v>6</v>
@@ -59309,7 +59245,7 @@
     </row>
     <row r="5362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5362" t="s">
-        <v>5274</v>
+        <v>5275</v>
       </c>
       <c r="B5362">
         <v>6</v>
@@ -59317,7 +59253,7 @@
     </row>
     <row r="5363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5363" t="s">
-        <v>5275</v>
+        <v>5276</v>
       </c>
       <c r="B5363">
         <v>6</v>
@@ -59325,7 +59261,7 @@
     </row>
     <row r="5364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5364" t="s">
-        <v>5276</v>
+        <v>5277</v>
       </c>
       <c r="B5364">
         <v>6</v>
@@ -59333,7 +59269,7 @@
     </row>
     <row r="5365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5365" t="s">
-        <v>5277</v>
+        <v>5278</v>
       </c>
       <c r="B5365">
         <v>6</v>
@@ -59341,7 +59277,7 @@
     </row>
     <row r="5366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5366" t="s">
-        <v>5278</v>
+        <v>5279</v>
       </c>
       <c r="B5366">
         <v>6</v>
@@ -59349,7 +59285,7 @@
     </row>
     <row r="5367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5367" t="s">
-        <v>5279</v>
+        <v>5280</v>
       </c>
       <c r="B5367">
         <v>6</v>
@@ -59357,7 +59293,7 @@
     </row>
     <row r="5368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5368" t="s">
-        <v>5280</v>
+        <v>5281</v>
       </c>
       <c r="B5368">
         <v>6</v>
@@ -59365,7 +59301,7 @@
     </row>
     <row r="5369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5369" t="s">
-        <v>5281</v>
+        <v>5282</v>
       </c>
       <c r="B5369">
         <v>6</v>
@@ -59373,7 +59309,7 @@
     </row>
     <row r="5370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5370" t="s">
-        <v>5282</v>
+        <v>5283</v>
       </c>
       <c r="B5370">
         <v>6</v>
@@ -59381,7 +59317,7 @@
     </row>
     <row r="5371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5371" t="s">
-        <v>5283</v>
+        <v>5284</v>
       </c>
       <c r="B5371">
         <v>6</v>
@@ -59389,7 +59325,7 @@
     </row>
     <row r="5372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5372" t="s">
-        <v>5284</v>
+        <v>5285</v>
       </c>
       <c r="B5372">
         <v>6</v>
@@ -59397,7 +59333,7 @@
     </row>
     <row r="5373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5373" t="s">
-        <v>5285</v>
+        <v>5286</v>
       </c>
       <c r="B5373">
         <v>6</v>
@@ -59405,7 +59341,7 @@
     </row>
     <row r="5374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5374" t="s">
-        <v>5286</v>
+        <v>5287</v>
       </c>
       <c r="B5374">
         <v>6</v>
@@ -59413,7 +59349,7 @@
     </row>
     <row r="5375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5375" t="s">
-        <v>5287</v>
+        <v>5288</v>
       </c>
       <c r="B5375">
         <v>6</v>
@@ -59421,7 +59357,7 @@
     </row>
     <row r="5376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5376" t="s">
-        <v>5288</v>
+        <v>5289</v>
       </c>
       <c r="B5376">
         <v>6</v>
@@ -59429,7 +59365,7 @@
     </row>
     <row r="5377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5377" t="s">
-        <v>5289</v>
+        <v>5290</v>
       </c>
       <c r="B5377">
         <v>6</v>
@@ -59437,7 +59373,7 @@
     </row>
     <row r="5378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5378" t="s">
-        <v>5290</v>
+        <v>5291</v>
       </c>
       <c r="B5378">
         <v>6</v>
@@ -59445,7 +59381,7 @@
     </row>
     <row r="5379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5379" t="s">
-        <v>5291</v>
+        <v>5292</v>
       </c>
       <c r="B5379">
         <v>6</v>
@@ -59453,7 +59389,7 @@
     </row>
     <row r="5380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5380" t="s">
-        <v>5292</v>
+        <v>5293</v>
       </c>
       <c r="B5380">
         <v>6</v>
@@ -59461,7 +59397,7 @@
     </row>
     <row r="5381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5381" t="s">
-        <v>5293</v>
+        <v>5294</v>
       </c>
       <c r="B5381">
         <v>6</v>
@@ -59469,7 +59405,7 @@
     </row>
     <row r="5382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5382" t="s">
-        <v>5294</v>
+        <v>5295</v>
       </c>
       <c r="B5382">
         <v>6</v>
@@ -59477,7 +59413,7 @@
     </row>
     <row r="5383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5383" t="s">
-        <v>5295</v>
+        <v>5296</v>
       </c>
       <c r="B5383">
         <v>6</v>
@@ -59485,7 +59421,7 @@
     </row>
     <row r="5384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5384" t="s">
-        <v>5296</v>
+        <v>5297</v>
       </c>
       <c r="B5384">
         <v>6</v>
@@ -59493,7 +59429,7 @@
     </row>
     <row r="5385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5385" t="s">
-        <v>5297</v>
+        <v>5298</v>
       </c>
       <c r="B5385">
         <v>6</v>
@@ -59501,7 +59437,7 @@
     </row>
     <row r="5386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5386" t="s">
-        <v>5298</v>
+        <v>5299</v>
       </c>
       <c r="B5386">
         <v>6</v>
@@ -59509,7 +59445,7 @@
     </row>
     <row r="5387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5387" t="s">
-        <v>5299</v>
+        <v>5300</v>
       </c>
       <c r="B5387">
         <v>6</v>
@@ -59517,7 +59453,7 @@
     </row>
     <row r="5388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5388" t="s">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="B5388">
         <v>6</v>
@@ -59525,7 +59461,7 @@
     </row>
     <row r="5389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5389" t="s">
-        <v>5301</v>
+        <v>5302</v>
       </c>
       <c r="B5389">
         <v>6</v>
@@ -59533,7 +59469,7 @@
     </row>
     <row r="5390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5390" t="s">
-        <v>5302</v>
+        <v>5303</v>
       </c>
       <c r="B5390">
         <v>6</v>
@@ -59541,7 +59477,7 @@
     </row>
     <row r="5391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5391" t="s">
-        <v>5303</v>
+        <v>5304</v>
       </c>
       <c r="B5391">
         <v>6</v>
@@ -59549,7 +59485,7 @@
     </row>
     <row r="5392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5392" t="s">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="B5392">
         <v>6</v>
@@ -59557,7 +59493,7 @@
     </row>
     <row r="5393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5393" t="s">
-        <v>5305</v>
+        <v>5306</v>
       </c>
       <c r="B5393">
         <v>6</v>
@@ -59565,7 +59501,7 @@
     </row>
     <row r="5394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5394" t="s">
-        <v>5306</v>
+        <v>5307</v>
       </c>
       <c r="B5394">
         <v>6</v>
@@ -59573,7 +59509,7 @@
     </row>
     <row r="5395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5395" t="s">
-        <v>5307</v>
+        <v>5308</v>
       </c>
       <c r="B5395">
         <v>6</v>
@@ -59581,7 +59517,7 @@
     </row>
     <row r="5396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5396" t="s">
-        <v>5308</v>
+        <v>5309</v>
       </c>
       <c r="B5396">
         <v>6</v>
@@ -59589,7 +59525,7 @@
     </row>
     <row r="5397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5397" t="s">
-        <v>5309</v>
+        <v>5310</v>
       </c>
       <c r="B5397">
         <v>6</v>
@@ -59597,7 +59533,7 @@
     </row>
     <row r="5398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5398" t="s">
-        <v>5310</v>
+        <v>5311</v>
       </c>
       <c r="B5398">
         <v>6</v>
@@ -59605,7 +59541,7 @@
     </row>
     <row r="5399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5399" t="s">
-        <v>5311</v>
+        <v>5312</v>
       </c>
       <c r="B5399">
         <v>6</v>
@@ -59613,7 +59549,7 @@
     </row>
     <row r="5400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5400" t="s">
-        <v>5312</v>
+        <v>5313</v>
       </c>
       <c r="B5400">
         <v>6</v>
@@ -59621,205 +59557,14 @@
     </row>
     <row r="5401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5401" t="s">
-        <v>5313</v>
+        <v>5314</v>
       </c>
       <c r="B5401">
         <v>6</v>
       </c>
     </row>
-    <row r="5402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5402" t="s">
-        <v>5314</v>
-      </c>
-      <c r="B5402">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5403" t="s">
-        <v>5315</v>
-      </c>
-      <c r="B5403">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5404" t="s">
-        <v>5316</v>
-      </c>
-      <c r="B5404">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5405" t="s">
-        <v>5317</v>
-      </c>
-      <c r="B5405">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5406" t="s">
-        <v>5318</v>
-      </c>
-      <c r="B5406">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5407" t="s">
-        <v>5319</v>
-      </c>
-      <c r="B5407">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5408" t="s">
-        <v>5320</v>
-      </c>
-      <c r="B5408">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5409" t="s">
-        <v>5321</v>
-      </c>
-      <c r="B5409">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5410" t="s">
-        <v>5322</v>
-      </c>
-      <c r="B5410">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5411" t="s">
-        <v>5323</v>
-      </c>
-      <c r="B5411">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5412" t="s">
-        <v>5324</v>
-      </c>
-      <c r="B5412">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5413" t="s">
-        <v>5325</v>
-      </c>
-      <c r="B5413">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5414" t="s">
-        <v>5326</v>
-      </c>
-      <c r="B5414">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5415" t="s">
-        <v>5327</v>
-      </c>
-      <c r="B5415">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5416" t="s">
-        <v>5328</v>
-      </c>
-      <c r="B5416">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5417" t="s">
-        <v>5329</v>
-      </c>
-      <c r="B5417">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5418" t="s">
-        <v>5330</v>
-      </c>
-      <c r="B5418">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5419" t="s">
-        <v>5331</v>
-      </c>
-      <c r="B5419">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5420" t="s">
-        <v>5332</v>
-      </c>
-      <c r="B5420">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5421" t="s">
-        <v>5333</v>
-      </c>
-      <c r="B5421">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5422" t="s">
-        <v>5334</v>
-      </c>
-      <c r="B5422">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5423" t="s">
-        <v>5335</v>
-      </c>
-      <c r="B5423">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5424" t="s">
-        <v>5336</v>
-      </c>
-      <c r="B5424">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5425" t="s">
-        <v>5337</v>
-      </c>
-      <c r="B5425">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:B5401"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
